--- a/gpe/Problem_List.xlsx
+++ b/gpe/Problem_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnsou\Desktop\cpp\gpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47AE52-A37B-4FDF-BB49-BB8A6FBF0CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9CF9A4-7EF8-46B9-AA99-7A0727958AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18735" yWindow="8415" windowWidth="17475" windowHeight="11250" xr2:uid="{21DD07EA-1B5E-43B6-9AD5-97FF9BC94BD3}"/>
   </bookViews>
@@ -802,16 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -820,11 +811,20 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:O295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1200,4316 +1200,4316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="8">
         <f>COUNTIF(I:I, "&gt;0")/(COUNTA(I:I)-1)</f>
-        <v>0.13084112149532709</v>
-      </c>
-      <c r="N1" s="1" t="s">
+        <v>0.14018691588785046</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="8">
         <f>SUMIF(I:I, "&gt;0")/COUNTIF(I:I, "&gt;0") - 1</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>0.13270000000000001</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>41</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>7759</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>44202</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>0.22339999999999999</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>28</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>9512</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>44293</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>0.14560000000000001</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>18</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>13488</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>44328</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.153</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>22</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>6746</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <v>44277</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>0.38700000000000001</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>21</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>5268</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="2">
         <v>44312</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
         <v>0.153</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>19</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>8263</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <v>44277</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
+      <c r="I13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5">
         <v>0.1</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>2383</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
         <v>43999</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>0.2054</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>39</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>5830</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>4</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="2">
         <v>44146</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="3"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
         <v>7.7299999999999994E-2</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>30</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>4997</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>4</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="2">
         <v>44165</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.13819999999999999</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>25</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>4140</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>4</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="2">
         <v>44125</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>0.3367</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>21</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>4658</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>4</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="2">
         <v>44202</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>0.24179999999999999</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>19</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>5531</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>4</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="2">
         <v>44214</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="3"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>0.253</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>18</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>6938</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>4</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="2">
         <v>44202</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="3"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
         <v>0.1888</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>18</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>6426</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <v>4</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="2">
         <v>44293</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="3">
-        <v>2</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
         <v>0.21390000000000001</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>17</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>4280</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="1">
         <v>4</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="2">
         <v>44328</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="3"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>0.33189999999999997</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>15</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>13250</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="1">
         <v>4</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="2">
         <v>44085</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="3"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
         <v>0.25130000000000002</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>15</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>4427</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="1">
         <v>4</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="2">
         <v>44078</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="3"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3">
         <v>0.1724</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>10</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>4154</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <v>4</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="2">
         <v>44312</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="3"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="3">
-        <v>2</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
         <v>0.2303</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>9</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>4593</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="1">
         <v>4</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="2">
         <v>44312</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="3"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="21" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>1</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="3">
         <v>0.14810000000000001</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="1">
         <v>7</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>6809</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="1">
         <v>4</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="2">
         <v>44277</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="6"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="3"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="21" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>1</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="3">
         <v>0.1673</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>7</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>4034</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="1">
         <v>4</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="2">
         <v>44328</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="3"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>1</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="3">
         <v>0.2417</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <v>5</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>1488</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="1">
         <v>4</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="2">
         <v>44085</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="6"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="3"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="21" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>3</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="3">
         <v>0.28660000000000002</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>32</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>9880</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="1">
         <v>3</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="2">
         <v>44181</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="3"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="21" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="3">
-        <v>2</v>
-      </c>
-      <c r="C49" s="6">
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3">
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="1">
         <v>24</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="1">
         <v>3775</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="1">
         <v>3</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="2">
         <v>44312</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="3"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="21" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>3</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="3">
         <v>0.32529999999999998</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="1">
         <v>23</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="1">
         <v>6414</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="1">
         <v>3</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="2">
         <v>44293</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="6"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="3"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" ht="21" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="3">
-        <v>2</v>
-      </c>
-      <c r="C53" s="6">
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3">
         <v>0.1948</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="1">
         <v>21</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <v>4393</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="1">
         <v>3</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="2">
         <v>44265</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="3"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="21" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B55" s="3">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6">
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3">
         <v>0.2291</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="1">
         <v>20</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>3347</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="1">
         <v>3</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="2">
         <v>44293</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="6"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="3"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="21" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="3">
-        <v>2</v>
-      </c>
-      <c r="C57" s="6">
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3">
         <v>0.19550000000000001</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="1">
         <v>19</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="1">
         <v>7019</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="1">
         <v>3</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="2">
         <v>44125</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="6"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="3"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="21" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>3</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="3">
         <v>0.28029999999999999</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="1">
         <v>16</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="1">
         <v>5908</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="1">
         <v>3</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="2">
         <v>43999</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="6"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="3"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="21" customHeight="1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="3">
-        <v>2</v>
-      </c>
-      <c r="C61" s="6">
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3">
         <v>0.21290000000000001</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="1">
         <v>16</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="1">
         <v>6968</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="1">
         <v>3</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="2">
         <v>44312</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="6"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="3"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="21" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="3">
-        <v>2</v>
-      </c>
-      <c r="C63" s="6">
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
         <v>0.22570000000000001</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="1">
         <v>13</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="1">
         <v>4950</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="1">
         <v>3</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="2">
         <v>44328</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="6"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="3"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="21" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="1">
         <v>1</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="3">
         <v>0.161</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="1">
         <v>11</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="1">
         <v>4017</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="1">
         <v>3</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="2">
         <v>44202</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="6"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="3"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="21" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3">
-        <v>2</v>
-      </c>
-      <c r="C67" s="6">
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3">
         <v>0.38129999999999997</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="1">
         <v>9</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="1">
         <v>2608</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="1">
         <v>3</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="2">
         <v>44181</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="6"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="3"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="3"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="21" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="3">
-        <v>2</v>
-      </c>
-      <c r="C69" s="6">
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3">
         <v>0.28160000000000002</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="1">
         <v>8</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="1">
         <v>2922</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="1">
         <v>3</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="2">
         <v>43995</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="6"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="3"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="3"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="21" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="1">
         <v>1</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="3">
         <v>0.1082</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="1">
         <v>8</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="1">
         <v>4981</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="1">
         <v>3</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="2">
         <v>44165</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="6"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="3"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="21" customHeight="1">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="3">
-        <v>2</v>
-      </c>
-      <c r="C73" s="6">
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3">
         <v>0.31009999999999999</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="1">
         <v>7</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="1">
         <v>2267</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="1">
         <v>3</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="2">
         <v>44293</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="6"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="3"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="3"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" ht="21" customHeight="1">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="1">
         <v>1</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="3">
         <v>6.2E-2</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="1">
         <v>7</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="1">
         <v>5923</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="1">
         <v>3</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="2">
         <v>44032</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="6"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="3"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="3"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="21" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="3">
-        <v>2</v>
-      </c>
-      <c r="C77" s="6">
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3">
         <v>0.38290000000000002</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="1">
         <v>6</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="1">
         <v>2898</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="1">
         <v>3</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="2">
         <v>44265</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="6"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="3"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="3"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" ht="21" customHeight="1">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="3">
         <v>0.24729999999999999</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="1">
         <v>6</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="1">
         <v>2260</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="1">
         <v>3</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="2">
         <v>44265</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="6"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="3"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="3"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="21" customHeight="1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="6">
+      <c r="B81" s="6"/>
+      <c r="C81" s="3">
         <v>7.1599999999999997E-2</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="1">
         <v>6</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="1">
         <v>1836</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="1">
         <v>3</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="2">
         <v>44202</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="3"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="3"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" ht="21" customHeight="1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="1">
         <v>1</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="3">
         <v>0.28029999999999999</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="1">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="1">
         <v>2502</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="1">
         <v>3</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="2">
         <v>44214</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="6"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="3"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="3"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="21" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="1">
         <v>3</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="3">
         <v>8.7599999999999997E-2</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="1">
         <v>51</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="1">
         <v>3341</v>
       </c>
-      <c r="G85" s="3">
-        <v>2</v>
-      </c>
-      <c r="H85" s="5">
+      <c r="G85" s="1">
+        <v>2</v>
+      </c>
+      <c r="H85" s="2">
         <v>44085</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="6"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="3"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="3"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="1">
         <v>3</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="3">
         <v>0.1089</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="1">
         <v>34</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="1">
         <v>5274</v>
       </c>
-      <c r="G87" s="3">
-        <v>2</v>
-      </c>
-      <c r="H87" s="5">
+      <c r="G87" s="1">
+        <v>2</v>
+      </c>
+      <c r="H87" s="2">
         <v>44146</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="6"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="3"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="3"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="21" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="1">
         <v>3</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="3">
         <v>0.16739999999999999</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="1">
         <v>33</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="1">
         <v>3667</v>
       </c>
-      <c r="G89" s="3">
-        <v>2</v>
-      </c>
-      <c r="H89" s="5">
+      <c r="G89" s="1">
+        <v>2</v>
+      </c>
+      <c r="H89" s="2">
         <v>44025</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="6"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="3"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="21" customHeight="1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="1">
         <v>3</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="3">
         <v>0.2084</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="1">
         <v>33</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="1">
         <v>3210</v>
       </c>
-      <c r="G91" s="3">
-        <v>2</v>
-      </c>
-      <c r="H91" s="5">
+      <c r="G91" s="1">
+        <v>2</v>
+      </c>
+      <c r="H91" s="2">
         <v>43995</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="6"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="3"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="24" customHeight="1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="1">
         <v>3</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="3">
         <v>0.25230000000000002</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="1">
         <v>32</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="1">
         <v>3285</v>
       </c>
-      <c r="G93" s="3">
-        <v>2</v>
-      </c>
-      <c r="H93" s="5">
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
+      <c r="H93" s="2">
         <v>43985</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="6"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="3"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="3"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" ht="21" customHeight="1">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="1">
         <v>3</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="3">
         <v>0.1996</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="1">
         <v>28</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="1">
         <v>2440</v>
       </c>
-      <c r="G95" s="3">
-        <v>2</v>
-      </c>
-      <c r="H95" s="5">
+      <c r="G95" s="1">
+        <v>2</v>
+      </c>
+      <c r="H95" s="2">
         <v>43936</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="6"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="3"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="3"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="21" customHeight="1">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="3">
-        <v>2</v>
-      </c>
-      <c r="C97" s="6">
+      <c r="B97" s="1">
+        <v>2</v>
+      </c>
+      <c r="C97" s="3">
         <v>0.19570000000000001</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="1">
         <v>25</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="1">
         <v>2765</v>
       </c>
-      <c r="G97" s="3">
-        <v>2</v>
-      </c>
-      <c r="H97" s="5">
+      <c r="G97" s="1">
+        <v>2</v>
+      </c>
+      <c r="H97" s="2">
         <v>43995</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="6"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="3"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="3"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="24" customHeight="1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="1">
         <v>3</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="3">
         <v>0.3014</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="1">
         <v>21</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="1">
         <v>7750</v>
       </c>
-      <c r="G99" s="3">
-        <v>2</v>
-      </c>
-      <c r="H99" s="5">
+      <c r="G99" s="1">
+        <v>2</v>
+      </c>
+      <c r="H99" s="2">
         <v>43584</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="6"/>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="3"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="3"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="21" customHeight="1">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="1">
         <v>3</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="3">
         <v>0.1885</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="1">
         <v>18</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="1">
         <v>15437</v>
       </c>
-      <c r="G101" s="3">
-        <v>2</v>
-      </c>
-      <c r="H101" s="5">
+      <c r="G101" s="1">
+        <v>2</v>
+      </c>
+      <c r="H101" s="2">
         <v>44025</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="6"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="3"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="3"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="21" customHeight="1">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B103" s="3">
-        <v>2</v>
-      </c>
-      <c r="C103" s="6">
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3">
         <v>0.2087</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="1">
         <v>18</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="1">
         <v>5248</v>
       </c>
-      <c r="G103" s="3">
-        <v>2</v>
-      </c>
-      <c r="H103" s="5">
+      <c r="G103" s="1">
+        <v>2</v>
+      </c>
+      <c r="H103" s="2">
         <v>44125</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="6"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="3"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="3"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="21" customHeight="1">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="1">
         <v>3</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="3">
         <v>0.56879999999999997</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="1">
         <v>15</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="1">
         <v>3501</v>
       </c>
-      <c r="G105" s="3">
-        <v>2</v>
-      </c>
-      <c r="H105" s="5">
+      <c r="G105" s="1">
+        <v>2</v>
+      </c>
+      <c r="H105" s="2">
         <v>43817</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="6"/>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="3"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="3"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="21" customHeight="1">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="1">
         <v>3</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="3">
         <v>0.3039</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="1">
         <v>13</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="1">
         <v>8187</v>
       </c>
-      <c r="G107" s="3">
-        <v>2</v>
-      </c>
-      <c r="H107" s="5">
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" s="2">
         <v>43995</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="6"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="3"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="3"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" ht="21" customHeight="1">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="3">
-        <v>2</v>
-      </c>
-      <c r="C109" s="6">
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3">
         <v>0.21640000000000001</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="1">
         <v>13</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="1">
         <v>8807</v>
       </c>
-      <c r="G109" s="3">
-        <v>2</v>
-      </c>
-      <c r="H109" s="5">
+      <c r="G109" s="1">
+        <v>2</v>
+      </c>
+      <c r="H109" s="2">
         <v>44085</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="6"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="3"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="3"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="21" customHeight="1">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="1">
         <v>1</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="3">
         <v>0.1885</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="1">
         <v>13</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="1">
         <v>1999</v>
       </c>
-      <c r="G111" s="3">
-        <v>2</v>
-      </c>
-      <c r="H111" s="5">
+      <c r="G111" s="1">
+        <v>2</v>
+      </c>
+      <c r="H111" s="2">
         <v>44013</v>
       </c>
-      <c r="I111" s="3">
+      <c r="I111" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="6"/>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="3"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="3"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="21" customHeight="1">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="1">
         <v>3</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="3">
         <v>0.378</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="1">
         <v>12</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="1">
         <v>6780</v>
       </c>
-      <c r="G113" s="3">
-        <v>2</v>
-      </c>
-      <c r="H113" s="5">
+      <c r="G113" s="1">
+        <v>2</v>
+      </c>
+      <c r="H113" s="2">
         <v>44078</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="6"/>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="3"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="3"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="21" customHeight="1">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B115" s="3">
-        <v>2</v>
-      </c>
-      <c r="C115" s="6">
+      <c r="B115" s="1">
+        <v>2</v>
+      </c>
+      <c r="C115" s="3">
         <v>0.25109999999999999</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="1">
         <v>12</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="1">
         <v>2555</v>
       </c>
-      <c r="G115" s="3">
-        <v>2</v>
-      </c>
-      <c r="H115" s="5">
+      <c r="G115" s="1">
+        <v>2</v>
+      </c>
+      <c r="H115" s="2">
         <v>43971</v>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="6"/>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="3"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="3"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="21" customHeight="1">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="1">
         <v>3</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="3">
         <v>0.58720000000000006</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="1">
         <v>11</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="1">
         <v>4164</v>
       </c>
-      <c r="G117" s="3">
-        <v>2</v>
-      </c>
-      <c r="H117" s="5">
+      <c r="G117" s="1">
+        <v>2</v>
+      </c>
+      <c r="H117" s="2">
         <v>44165</v>
       </c>
-      <c r="I117" s="3">
+      <c r="I117" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="6"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="3"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="3"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" ht="21" customHeight="1">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B119" s="3">
-        <v>2</v>
-      </c>
-      <c r="C119" s="6">
+      <c r="B119" s="1">
+        <v>2</v>
+      </c>
+      <c r="C119" s="3">
         <v>0.25009999999999999</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="1">
         <v>11</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="1">
         <v>6359</v>
       </c>
-      <c r="G119" s="3">
-        <v>2</v>
-      </c>
-      <c r="H119" s="5">
+      <c r="G119" s="1">
+        <v>2</v>
+      </c>
+      <c r="H119" s="2">
         <v>43754</v>
       </c>
-      <c r="I119" s="3">
+      <c r="I119" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="6"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="3"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="3"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="21" customHeight="1">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B121" s="3">
-        <v>2</v>
-      </c>
-      <c r="C121" s="6">
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
+      <c r="C121" s="3">
         <v>0.2281</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="1">
         <v>9</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="1">
         <v>4799</v>
       </c>
-      <c r="G121" s="3">
-        <v>2</v>
-      </c>
-      <c r="H121" s="5">
+      <c r="G121" s="1">
+        <v>2</v>
+      </c>
+      <c r="H121" s="2">
         <v>44277</v>
       </c>
-      <c r="I121" s="3">
+      <c r="I121" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="6"/>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="3"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="3"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" ht="21" customHeight="1">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B123" s="3">
-        <v>2</v>
-      </c>
-      <c r="C123" s="6">
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3">
         <v>0.318</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="1">
         <v>9</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="1">
         <v>3184</v>
       </c>
-      <c r="G123" s="3">
-        <v>2</v>
-      </c>
-      <c r="H123" s="5">
+      <c r="G123" s="1">
+        <v>2</v>
+      </c>
+      <c r="H123" s="2">
         <v>43985</v>
       </c>
-      <c r="I123" s="3">
+      <c r="I123" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="6"/>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="3"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="3"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" ht="21" customHeight="1">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="3">
-        <v>2</v>
-      </c>
-      <c r="C125" s="6">
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+      <c r="C125" s="3">
         <v>0.3604</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="1">
         <v>9</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="1">
         <v>2175</v>
       </c>
-      <c r="G125" s="3">
-        <v>2</v>
-      </c>
-      <c r="H125" s="5">
+      <c r="G125" s="1">
+        <v>2</v>
+      </c>
+      <c r="H125" s="2">
         <v>43985</v>
       </c>
-      <c r="I125" s="3">
+      <c r="I125" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="6"/>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="3"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="3"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" ht="21" customHeight="1">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="1">
         <v>1</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="3">
         <v>0.18260000000000001</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="1">
         <v>9</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="1">
         <v>2865</v>
       </c>
-      <c r="G127" s="3">
-        <v>2</v>
-      </c>
-      <c r="H127" s="5">
+      <c r="G127" s="1">
+        <v>2</v>
+      </c>
+      <c r="H127" s="2">
         <v>44277</v>
       </c>
-      <c r="I127" s="3">
+      <c r="I127" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="6"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="3"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="3"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" ht="21" customHeight="1">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="1">
         <v>3</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="3">
         <v>0.49759999999999999</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="1">
         <v>8</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="1">
         <v>2125</v>
       </c>
-      <c r="G129" s="3">
-        <v>2</v>
-      </c>
-      <c r="H129" s="5">
+      <c r="G129" s="1">
+        <v>2</v>
+      </c>
+      <c r="H129" s="2">
         <v>44025</v>
       </c>
-      <c r="I129" s="3">
+      <c r="I129" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="6"/>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="3"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="3"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" ht="21" customHeight="1">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="6">
+      <c r="B131" s="6"/>
+      <c r="C131" s="3">
         <v>1.4E-2</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="1">
         <v>8</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="1">
         <v>2454</v>
       </c>
-      <c r="G131" s="3">
-        <v>2</v>
-      </c>
-      <c r="H131" s="5">
+      <c r="G131" s="1">
+        <v>2</v>
+      </c>
+      <c r="H131" s="2">
         <v>44146</v>
       </c>
-      <c r="I131" s="3">
+      <c r="I131" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A132" s="3"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="6"/>
+      <c r="A132" s="1"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="3"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="3"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" ht="21" customHeight="1">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B133" s="3">
-        <v>2</v>
-      </c>
-      <c r="C133" s="6">
+      <c r="B133" s="1">
+        <v>2</v>
+      </c>
+      <c r="C133" s="3">
         <v>0.28339999999999999</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="1">
         <v>7</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="1">
         <v>5020</v>
       </c>
-      <c r="G133" s="3">
-        <v>2</v>
-      </c>
-      <c r="H133" s="5">
+      <c r="G133" s="1">
+        <v>2</v>
+      </c>
+      <c r="H133" s="2">
         <v>44125</v>
       </c>
-      <c r="I133" s="3">
+      <c r="I133" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="6"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="3"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="3"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" ht="21" customHeight="1">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B135" s="3">
-        <v>2</v>
-      </c>
-      <c r="C135" s="6">
+      <c r="B135" s="1">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3">
         <v>0.30680000000000002</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="1">
         <v>7</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="1">
         <v>2777</v>
       </c>
-      <c r="G135" s="3">
-        <v>2</v>
-      </c>
-      <c r="H135" s="5">
+      <c r="G135" s="1">
+        <v>2</v>
+      </c>
+      <c r="H135" s="2">
         <v>44328</v>
       </c>
-      <c r="I135" s="3">
+      <c r="I135" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="6"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="3"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="3"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" ht="21" customHeight="1">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B137" s="3">
-        <v>2</v>
-      </c>
-      <c r="C137" s="6">
+      <c r="B137" s="1">
+        <v>2</v>
+      </c>
+      <c r="C137" s="3">
         <v>0.26679999999999998</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="1">
         <v>7</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="1">
         <v>2451</v>
       </c>
-      <c r="G137" s="3">
-        <v>2</v>
-      </c>
-      <c r="H137" s="5">
+      <c r="G137" s="1">
+        <v>2</v>
+      </c>
+      <c r="H137" s="2">
         <v>43985</v>
       </c>
-      <c r="I137" s="3">
+      <c r="I137" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="6"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="3"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="3"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" ht="21" customHeight="1">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B139" s="3">
-        <v>2</v>
-      </c>
-      <c r="C139" s="6">
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139" s="3">
         <v>0.25519999999999998</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="1">
         <v>5</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="1">
         <v>8262</v>
       </c>
-      <c r="G139" s="3">
-        <v>2</v>
-      </c>
-      <c r="H139" s="5">
+      <c r="G139" s="1">
+        <v>2</v>
+      </c>
+      <c r="H139" s="2">
         <v>43971</v>
       </c>
-      <c r="I139" s="3">
+      <c r="I139" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="6"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="3"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="3"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" ht="21" customHeight="1">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B141" s="3">
-        <v>2</v>
-      </c>
-      <c r="C141" s="6">
+      <c r="B141" s="1">
+        <v>2</v>
+      </c>
+      <c r="C141" s="3">
         <v>0.44440000000000002</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="1">
         <v>4</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="1">
         <v>1410</v>
       </c>
-      <c r="G141" s="3">
-        <v>2</v>
-      </c>
-      <c r="H141" s="5">
+      <c r="G141" s="1">
+        <v>2</v>
+      </c>
+      <c r="H141" s="2">
         <v>44293</v>
       </c>
-      <c r="I141" s="3">
+      <c r="I141" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="6"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="3"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="3"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" ht="21" customHeight="1">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="6">
+      <c r="B143" s="6"/>
+      <c r="C143" s="3">
         <v>0.11840000000000001</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="1">
         <v>4</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="1">
         <v>644</v>
       </c>
-      <c r="G143" s="3">
-        <v>2</v>
-      </c>
-      <c r="H143" s="5">
+      <c r="G143" s="1">
+        <v>2</v>
+      </c>
+      <c r="H143" s="2">
         <v>43971</v>
       </c>
-      <c r="I143" s="3">
+      <c r="I143" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A144" s="3"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="6"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="3"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="3"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" ht="21" customHeight="1">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="1">
         <v>1</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="3">
         <v>0.26479999999999998</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="1">
         <v>3</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="1">
         <v>1722</v>
       </c>
-      <c r="G145" s="3">
-        <v>2</v>
-      </c>
-      <c r="H145" s="5">
+      <c r="G145" s="1">
+        <v>2</v>
+      </c>
+      <c r="H145" s="2">
         <v>44265</v>
       </c>
-      <c r="I145" s="3">
+      <c r="I145" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="6"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="3"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="3"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" ht="21" customHeight="1">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="6">
+      <c r="B147" s="6"/>
+      <c r="C147" s="3">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="1">
         <v>3</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="1">
         <v>1672</v>
       </c>
-      <c r="G147" s="3">
-        <v>2</v>
-      </c>
-      <c r="H147" s="5">
+      <c r="G147" s="1">
+        <v>2</v>
+      </c>
+      <c r="H147" s="2">
         <v>43829</v>
       </c>
-      <c r="I147" s="3">
+      <c r="I147" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A148" s="3"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="6"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="3"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="3"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" ht="21" customHeight="1">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="6">
+      <c r="B149" s="6"/>
+      <c r="C149" s="3">
         <v>0.1739</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="1">
         <v>3</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="1">
         <v>953</v>
       </c>
-      <c r="G149" s="3">
-        <v>2</v>
-      </c>
-      <c r="H149" s="5">
+      <c r="G149" s="1">
+        <v>2</v>
+      </c>
+      <c r="H149" s="2">
         <v>44146</v>
       </c>
-      <c r="I149" s="3">
+      <c r="I149" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A150" s="3"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="6"/>
+      <c r="A150" s="1"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="3"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="3"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" ht="21" customHeight="1">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="6">
+      <c r="B151" s="6"/>
+      <c r="C151" s="3">
         <v>0.16669999999999999</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="1">
         <v>3</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="1">
         <v>675</v>
       </c>
-      <c r="G151" s="3">
-        <v>2</v>
-      </c>
-      <c r="H151" s="5">
+      <c r="G151" s="1">
+        <v>2</v>
+      </c>
+      <c r="H151" s="2">
         <v>44277</v>
       </c>
-      <c r="I151" s="3">
+      <c r="I151" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A152" s="3"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="6"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="3"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="3"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" ht="21" customHeight="1">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="6">
+      <c r="B153" s="6"/>
+      <c r="C153" s="3">
         <v>0.1731</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E153" s="3">
-        <v>2</v>
-      </c>
-      <c r="F153" s="3">
+      <c r="E153" s="1">
+        <v>2</v>
+      </c>
+      <c r="F153" s="1">
         <v>668</v>
       </c>
-      <c r="G153" s="3">
-        <v>2</v>
-      </c>
-      <c r="H153" s="5">
+      <c r="G153" s="1">
+        <v>2</v>
+      </c>
+      <c r="H153" s="2">
         <v>44165</v>
       </c>
-      <c r="I153" s="3">
+      <c r="I153" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A154" s="3"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="6"/>
+      <c r="A154" s="1"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="3"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="3"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" ht="21" customHeight="1">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="6">
+      <c r="B155" s="6"/>
+      <c r="C155" s="3">
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E155" s="3">
-        <v>2</v>
-      </c>
-      <c r="F155" s="3">
+      <c r="E155" s="1">
+        <v>2</v>
+      </c>
+      <c r="F155" s="1">
         <v>746</v>
       </c>
-      <c r="G155" s="3">
-        <v>2</v>
-      </c>
-      <c r="H155" s="5">
+      <c r="G155" s="1">
+        <v>2</v>
+      </c>
+      <c r="H155" s="2">
         <v>44265</v>
       </c>
-      <c r="I155" s="3">
+      <c r="I155" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A156" s="3"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="6"/>
+      <c r="A156" s="1"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="3"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="3"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" ht="21" customHeight="1">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="6">
+      <c r="B157" s="6"/>
+      <c r="C157" s="3">
         <v>0.1656</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E157" s="3">
-        <v>2</v>
-      </c>
-      <c r="F157" s="3">
+      <c r="E157" s="1">
+        <v>2</v>
+      </c>
+      <c r="F157" s="1">
         <v>2641</v>
       </c>
-      <c r="G157" s="3">
-        <v>2</v>
-      </c>
-      <c r="H157" s="5">
+      <c r="G157" s="1">
+        <v>2</v>
+      </c>
+      <c r="H157" s="2">
         <v>44181</v>
       </c>
-      <c r="I157" s="3">
+      <c r="I157" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A158" s="3"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="6"/>
+      <c r="A158" s="1"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="3"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="3"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9" ht="21" customHeight="1">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B159" s="3">
-        <v>2</v>
-      </c>
-      <c r="C159" s="6">
+      <c r="B159" s="1">
+        <v>2</v>
+      </c>
+      <c r="C159" s="3">
         <v>0.1258</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="1">
         <v>27</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="1">
         <v>5190</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G159" s="1">
         <v>1</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="2">
         <v>44146</v>
       </c>
-      <c r="I159" s="3">
+      <c r="I159" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="6"/>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="3"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="3"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9" ht="21" customHeight="1">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B161" s="3">
-        <v>2</v>
-      </c>
-      <c r="C161" s="6">
+      <c r="B161" s="1">
+        <v>2</v>
+      </c>
+      <c r="C161" s="3">
         <v>0.19539999999999999</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="1">
         <v>22</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="1">
         <v>2994</v>
       </c>
-      <c r="G161" s="3">
+      <c r="G161" s="1">
         <v>1</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="2">
         <v>43661</v>
       </c>
-      <c r="I161" s="3">
+      <c r="I161" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="6"/>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="3"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="3"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9" ht="21" customHeight="1">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="1">
         <v>3</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="3">
         <v>0.15390000000000001</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="1">
         <v>21</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="1">
         <v>10939</v>
       </c>
-      <c r="G163" s="3">
+      <c r="G163" s="1">
         <v>1</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="2">
         <v>43957</v>
       </c>
-      <c r="I163" s="3">
+      <c r="I163" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="6"/>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="3"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="3"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9" ht="21" customHeight="1">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B165" s="3">
-        <v>2</v>
-      </c>
-      <c r="C165" s="6">
+      <c r="B165" s="1">
+        <v>2</v>
+      </c>
+      <c r="C165" s="3">
         <v>0.14399999999999999</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="1">
         <v>18</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="1">
         <v>4334</v>
       </c>
-      <c r="G165" s="3">
+      <c r="G165" s="1">
         <v>1</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165" s="2">
         <v>44111</v>
       </c>
-      <c r="I165" s="3">
+      <c r="I165" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="6"/>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="3"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="3"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9" ht="21" customHeight="1">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B167" s="3">
-        <v>2</v>
-      </c>
-      <c r="C167" s="6">
+      <c r="B167" s="1">
+        <v>2</v>
+      </c>
+      <c r="C167" s="3">
         <v>0.1807</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="1">
         <v>17</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="1">
         <v>4286</v>
       </c>
-      <c r="G167" s="3">
+      <c r="G167" s="1">
         <v>1</v>
       </c>
-      <c r="H167" s="5">
+      <c r="H167" s="2">
         <v>43614</v>
       </c>
-      <c r="I167" s="3">
+      <c r="I167" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="6"/>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="3"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="3"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9" ht="21" customHeight="1">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="1">
         <v>3</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="3">
         <v>0.2382</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="1">
         <v>16</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="1">
         <v>12697</v>
       </c>
-      <c r="G169" s="3">
+      <c r="G169" s="1">
         <v>1</v>
       </c>
-      <c r="H169" s="5">
+      <c r="H169" s="2">
         <v>43714</v>
       </c>
-      <c r="I169" s="3">
+      <c r="I169" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="6"/>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="3"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="3"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9" ht="21" customHeight="1">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="1">
         <v>1</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="3">
         <v>0.13600000000000001</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="1">
         <v>16</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="1">
         <v>1891</v>
       </c>
-      <c r="G171" s="3">
+      <c r="G171" s="1">
         <v>1</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171" s="2">
         <v>44312</v>
       </c>
-      <c r="I171" s="3">
+      <c r="I171" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="6"/>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="3"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="3"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9" ht="21" customHeight="1">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B173" s="3">
-        <v>2</v>
-      </c>
-      <c r="C173" s="6">
+      <c r="B173" s="1">
+        <v>2</v>
+      </c>
+      <c r="C173" s="3">
         <v>0.2107</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="1">
         <v>13</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="1">
         <v>3358</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G173" s="1">
         <v>1</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173" s="2">
         <v>43957</v>
       </c>
-      <c r="I173" s="3">
+      <c r="I173" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="6"/>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="3"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="3"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9" ht="21" customHeight="1">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B175" s="3">
-        <v>2</v>
-      </c>
-      <c r="C175" s="6">
+      <c r="B175" s="1">
+        <v>2</v>
+      </c>
+      <c r="C175" s="3">
         <v>0.13159999999999999</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="1">
         <v>12</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="1">
         <v>9119</v>
       </c>
-      <c r="G175" s="3">
+      <c r="G175" s="1">
         <v>1</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H175" s="2">
         <v>43999</v>
       </c>
-      <c r="I175" s="3">
+      <c r="I175" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="6"/>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="3"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="3"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9" ht="21" customHeight="1">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B177" s="3">
-        <v>2</v>
-      </c>
-      <c r="C177" s="6">
+      <c r="B177" s="1">
+        <v>2</v>
+      </c>
+      <c r="C177" s="3">
         <v>0.20169999999999999</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="1">
         <v>12</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="1">
         <v>4256</v>
       </c>
-      <c r="G177" s="3">
+      <c r="G177" s="1">
         <v>1</v>
       </c>
-      <c r="H177" s="5">
+      <c r="H177" s="2">
         <v>43971</v>
       </c>
-      <c r="I177" s="3">
+      <c r="I177" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="6"/>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="3"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="3"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9" ht="21" customHeight="1">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B179" s="3">
-        <v>2</v>
-      </c>
-      <c r="C179" s="6">
+      <c r="B179" s="1">
+        <v>2</v>
+      </c>
+      <c r="C179" s="3">
         <v>0.23960000000000001</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="1">
         <v>12</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="1">
         <v>6889</v>
       </c>
-      <c r="G179" s="3">
+      <c r="G179" s="1">
         <v>1</v>
       </c>
-      <c r="H179" s="5">
+      <c r="H179" s="2">
         <v>43668</v>
       </c>
-      <c r="I179" s="3">
+      <c r="I179" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="6"/>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="3"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="3"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9" ht="21" customHeight="1">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B181" s="3">
-        <v>2</v>
-      </c>
-      <c r="C181" s="6">
+      <c r="B181" s="1">
+        <v>2</v>
+      </c>
+      <c r="C181" s="3">
         <v>0.17030000000000001</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="1">
         <v>11</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="1">
         <v>11384</v>
       </c>
-      <c r="G181" s="3">
+      <c r="G181" s="1">
         <v>1</v>
       </c>
-      <c r="H181" s="5">
+      <c r="H181" s="2">
         <v>43528</v>
       </c>
-      <c r="I181" s="3">
+      <c r="I181" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="6"/>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="3"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="3"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" ht="21" customHeight="1">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B183" s="3">
-        <v>2</v>
-      </c>
-      <c r="C183" s="6">
+      <c r="B183" s="1">
+        <v>2</v>
+      </c>
+      <c r="C183" s="3">
         <v>0.311</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183" s="1">
         <v>11</v>
       </c>
-      <c r="F183" s="3">
+      <c r="F183" s="1">
         <v>5026</v>
       </c>
-      <c r="G183" s="3">
+      <c r="G183" s="1">
         <v>1</v>
       </c>
-      <c r="H183" s="5">
+      <c r="H183" s="2">
         <v>44328</v>
       </c>
-      <c r="I183" s="3">
+      <c r="I183" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="6"/>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="3"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="3"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" ht="21" customHeight="1">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="1">
         <v>1</v>
       </c>
-      <c r="C185" s="6">
+      <c r="C185" s="3">
         <v>0.14749999999999999</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185" s="1">
         <v>11</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="1">
         <v>4332</v>
       </c>
-      <c r="G185" s="3">
+      <c r="G185" s="1">
         <v>1</v>
       </c>
-      <c r="H185" s="5">
+      <c r="H185" s="2">
         <v>43803</v>
       </c>
-      <c r="I185" s="3">
+      <c r="I185" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="6"/>
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="3"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="3"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" ht="21" customHeight="1">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="1">
         <v>1</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="3">
         <v>0.11550000000000001</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="1">
         <v>11</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="1">
         <v>5001</v>
       </c>
-      <c r="G187" s="3">
+      <c r="G187" s="1">
         <v>1</v>
       </c>
-      <c r="H187" s="5">
+      <c r="H187" s="2">
         <v>43908</v>
       </c>
-      <c r="I187" s="3">
+      <c r="I187" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="6"/>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="3"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="3"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B189" s="3">
-        <v>2</v>
-      </c>
-      <c r="C189" s="6">
+      <c r="B189" s="1">
+        <v>2</v>
+      </c>
+      <c r="C189" s="3">
         <v>0.25669999999999998</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="1">
         <v>10</v>
       </c>
-      <c r="F189" s="3">
+      <c r="F189" s="1">
         <v>2806</v>
       </c>
-      <c r="G189" s="3">
+      <c r="G189" s="1">
         <v>1</v>
       </c>
-      <c r="H189" s="5">
+      <c r="H189" s="2">
         <v>44181</v>
       </c>
-      <c r="I189" s="3">
+      <c r="I189" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="6"/>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="3"/>
       <c r="D190" s="4"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="3"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B191" s="3">
-        <v>2</v>
-      </c>
-      <c r="C191" s="6">
+      <c r="B191" s="1">
+        <v>2</v>
+      </c>
+      <c r="C191" s="3">
         <v>0.28050000000000003</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="1">
         <v>8</v>
       </c>
-      <c r="F191" s="3">
+      <c r="F191" s="1">
         <v>3451</v>
       </c>
-      <c r="G191" s="3">
+      <c r="G191" s="1">
         <v>1</v>
       </c>
-      <c r="H191" s="5">
+      <c r="H191" s="2">
         <v>43985</v>
       </c>
-      <c r="I191" s="3">
+      <c r="I191" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="6"/>
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="3"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="3"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="3">
-        <v>2</v>
-      </c>
-      <c r="C193" s="6">
+      <c r="B193" s="1">
+        <v>2</v>
+      </c>
+      <c r="C193" s="3">
         <v>0.43559999999999999</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="1">
         <v>7</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="1">
         <v>1735</v>
       </c>
-      <c r="G193" s="3">
+      <c r="G193" s="1">
         <v>1</v>
       </c>
-      <c r="H193" s="5">
+      <c r="H193" s="2">
         <v>43936</v>
       </c>
-      <c r="I193" s="3">
+      <c r="I193" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="6"/>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="3"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="3"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B195" s="3">
-        <v>2</v>
-      </c>
-      <c r="C195" s="6">
+      <c r="B195" s="1">
+        <v>2</v>
+      </c>
+      <c r="C195" s="3">
         <v>0.1648</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="1">
         <v>6</v>
       </c>
-      <c r="F195" s="3">
+      <c r="F195" s="1">
         <v>8554</v>
       </c>
-      <c r="G195" s="3">
+      <c r="G195" s="1">
         <v>1</v>
       </c>
-      <c r="H195" s="5">
+      <c r="H195" s="2">
         <v>44032</v>
       </c>
-      <c r="I195" s="3">
+      <c r="I195" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="6"/>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="3"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="3"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="1"/>
     </row>
     <row r="197" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="1">
         <v>1</v>
       </c>
-      <c r="C197" s="6">
+      <c r="C197" s="3">
         <v>0.10539999999999999</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="1">
         <v>6</v>
       </c>
-      <c r="F197" s="3">
+      <c r="F197" s="1">
         <v>7591</v>
       </c>
-      <c r="G197" s="3">
+      <c r="G197" s="1">
         <v>1</v>
       </c>
-      <c r="H197" s="5">
+      <c r="H197" s="2">
         <v>43936</v>
       </c>
-      <c r="I197" s="3">
+      <c r="I197" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="6"/>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="3"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="3"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="1">
         <v>1</v>
       </c>
-      <c r="C199" s="6">
+      <c r="C199" s="3">
         <v>0.11550000000000001</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="1">
         <v>6</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="1">
         <v>3954</v>
       </c>
-      <c r="G199" s="3">
+      <c r="G199" s="1">
         <v>1</v>
       </c>
-      <c r="H199" s="5">
+      <c r="H199" s="2">
         <v>43936</v>
       </c>
-      <c r="I199" s="3">
+      <c r="I199" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="6"/>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="3"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="3"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B201" s="7"/>
-      <c r="C201" s="6">
+      <c r="B201" s="6"/>
+      <c r="C201" s="3">
         <v>0.1198</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="1">
         <v>5</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="1">
         <v>2452</v>
       </c>
-      <c r="G201" s="3">
+      <c r="G201" s="1">
         <v>1</v>
       </c>
-      <c r="H201" s="5">
+      <c r="H201" s="2">
         <v>43544</v>
       </c>
-      <c r="I201" s="3">
+      <c r="I201" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A202" s="3"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="6"/>
+      <c r="A202" s="1"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="3"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="3"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="1"/>
     </row>
     <row r="203" spans="1:9" ht="21" customHeight="1">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B203" s="3">
-        <v>2</v>
-      </c>
-      <c r="C203" s="6">
+      <c r="B203" s="1">
+        <v>2</v>
+      </c>
+      <c r="C203" s="3">
         <v>0.37569999999999998</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203" s="1">
         <v>3</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="1">
         <v>3395</v>
       </c>
-      <c r="G203" s="3">
+      <c r="G203" s="1">
         <v>1</v>
       </c>
-      <c r="H203" s="5">
+      <c r="H203" s="2">
         <v>44214</v>
       </c>
-      <c r="I203" s="3">
+      <c r="I203" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="6"/>
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="3"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="3"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="1"/>
     </row>
     <row r="205" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="1">
         <v>1</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C205" s="3">
         <v>0.26850000000000002</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205" s="1">
         <v>3</v>
       </c>
-      <c r="F205" s="3">
+      <c r="F205" s="1">
         <v>1362</v>
       </c>
-      <c r="G205" s="3">
+      <c r="G205" s="1">
         <v>1</v>
       </c>
-      <c r="H205" s="5">
+      <c r="H205" s="2">
         <v>43528</v>
       </c>
-      <c r="I205" s="3">
+      <c r="I205" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="6"/>
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="3"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="3"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="1"/>
     </row>
     <row r="207" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B207" s="7"/>
-      <c r="C207" s="8">
+      <c r="B207" s="6"/>
+      <c r="C207" s="5">
         <v>0</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207" s="1">
         <v>3</v>
       </c>
-      <c r="F207" s="3">
+      <c r="F207" s="1">
         <v>3071</v>
       </c>
-      <c r="G207" s="3">
+      <c r="G207" s="1">
         <v>1</v>
       </c>
-      <c r="H207" s="5">
+      <c r="H207" s="2">
         <v>43740</v>
       </c>
-      <c r="I207" s="3">
+      <c r="I207" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A208" s="3"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="8"/>
+      <c r="A208" s="1"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="5"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="3"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="1"/>
     </row>
     <row r="209" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B209" s="3">
-        <v>2</v>
-      </c>
-      <c r="C209" s="8">
+      <c r="B209" s="1">
+        <v>2</v>
+      </c>
+      <c r="C209" s="5">
         <v>0.4</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E209" s="3">
-        <v>2</v>
-      </c>
-      <c r="F209" s="3">
+      <c r="E209" s="1">
+        <v>2</v>
+      </c>
+      <c r="F209" s="1">
         <v>599</v>
       </c>
-      <c r="G209" s="3">
+      <c r="G209" s="1">
         <v>1</v>
       </c>
-      <c r="H209" s="5">
+      <c r="H209" s="2">
         <v>43829</v>
       </c>
-      <c r="I209" s="3">
+      <c r="I209" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="8"/>
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="5"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="3"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="1"/>
     </row>
     <row r="211" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B211" s="7"/>
-      <c r="C211" s="8">
+      <c r="B211" s="6"/>
+      <c r="C211" s="5">
         <v>0</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E211" s="3">
-        <v>2</v>
-      </c>
-      <c r="F211" s="3">
+      <c r="E211" s="1">
+        <v>2</v>
+      </c>
+      <c r="F211" s="1">
         <v>205</v>
       </c>
-      <c r="G211" s="3">
+      <c r="G211" s="1">
         <v>1</v>
       </c>
-      <c r="H211" s="5">
+      <c r="H211" s="2">
         <v>43668</v>
       </c>
-      <c r="I211" s="3">
+      <c r="I211" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A212" s="3"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="8"/>
+      <c r="A212" s="1"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="5"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="3"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="1"/>
     </row>
     <row r="213" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B213" s="3">
-        <v>2</v>
-      </c>
-      <c r="C213" s="6">
+      <c r="B213" s="1">
+        <v>2</v>
+      </c>
+      <c r="C213" s="3">
         <v>0.42859999999999998</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213" s="1">
         <v>1</v>
       </c>
-      <c r="F213" s="3">
+      <c r="F213" s="1">
         <v>921</v>
       </c>
-      <c r="G213" s="3">
+      <c r="G213" s="1">
         <v>1</v>
       </c>
-      <c r="H213" s="5">
+      <c r="H213" s="2">
         <v>43626</v>
       </c>
-      <c r="I213" s="3">
+      <c r="I213" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="6"/>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="3"/>
       <c r="D214" s="4"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="3"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="1">
         <v>1</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C215" s="3">
         <v>0.34379999999999999</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E215" s="1">
         <v>1</v>
       </c>
-      <c r="F215" s="3">
+      <c r="F215" s="1">
         <v>444</v>
       </c>
-      <c r="G215" s="3">
+      <c r="G215" s="1">
         <v>1</v>
       </c>
-      <c r="H215" s="5">
+      <c r="H215" s="2">
         <v>43544</v>
       </c>
-      <c r="I215" s="3">
+      <c r="I215" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="6"/>
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="3"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="3"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="1"/>
     </row>
     <row r="217" spans="1:9" ht="16.5" customHeight="1"/>
     <row r="218" spans="1:9" ht="16.5" customHeight="1"/>
@@ -5592,75 +5592,895 @@
     <row r="295" ht="16.5" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:I216" xr:uid="{DB34C744-4366-43EF-B90C-A462B6A9762F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I216">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I216">
       <sortCondition descending="1" ref="G1:G216"/>
     </sortState>
   </autoFilter>
   <mergeCells count="976">
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="I215:I216"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="I211:I212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="I207:I208"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="I209:I210"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="I205:I206"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="I201:I202"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="I203:I204"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I199:I200"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
     <mergeCell ref="I193:I194"/>
     <mergeCell ref="A195:A196"/>
     <mergeCell ref="C195:C196"/>
@@ -5685,894 +6505,74 @@
     <mergeCell ref="G195:G196"/>
     <mergeCell ref="H195:H196"/>
     <mergeCell ref="H197:H198"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="H183:H184"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="I181:I182"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="H179:H180"/>
-    <mergeCell ref="I179:I180"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="I175:I176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="H177:H178"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I199:I200"/>
-    <mergeCell ref="I183:I184"/>
-    <mergeCell ref="I187:I188"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="I201:I202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="I203:I204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="I205:I206"/>
+    <mergeCell ref="I207:I208"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="I209:I210"/>
+    <mergeCell ref="H207:H208"/>
     <mergeCell ref="D207:D208"/>
     <mergeCell ref="E207:E208"/>
     <mergeCell ref="F207:F208"/>
     <mergeCell ref="G207:G208"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="I215:I216"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:F216"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/gpe/Problem_List.xlsx
+++ b/gpe/Problem_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnsou\Desktop\cpp\gpe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpha\Desktop\cpp\gpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9CF9A4-7EF8-46B9-AA99-7A0727958AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F647D4C-8C8E-43EC-AA37-0315E35BB5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18735" yWindow="8415" windowWidth="17475" windowHeight="11250" xr2:uid="{21DD07EA-1B5E-43B6-9AD5-97FF9BC94BD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{21DD07EA-1B5E-43B6-9AD5-97FF9BC94BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -811,20 +820,11 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1183,4333 +1183,4333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB34C744-4366-43EF-B90C-A462B6A9762F}">
   <dimension ref="A1:O295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="2">
         <f>COUNTIF(I:I, "&gt;0")/(COUNTA(I:I)-1)</f>
-        <v>0.14018691588785046</v>
-      </c>
-      <c r="N1" s="7" t="s">
+        <v>0.15887850467289719</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="2">
         <f>SUMIF(I:I, "&gt;0")/COUNTIF(I:I, "&gt;0") - 1</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>0.13270000000000001</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>41</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>7759</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="5">
         <v>44202</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>0.22339999999999999</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>28</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>9512</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>44293</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>0.14560000000000001</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>18</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>13488</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>6</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>44328</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
         <v>0.153</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>22</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>6746</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>44277</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>0.38700000000000001</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>21</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>5268</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>44312</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
         <v>0.153</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>19</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>8263</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>44277</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8">
         <v>0.1</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>8</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>2383</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>5</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <v>43999</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>0.2054</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>39</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>5830</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>44146</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
+      <c r="I17" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
         <v>7.7299999999999994E-2</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>30</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>4997</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="5">
         <v>44165</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
         <v>0.13819999999999999</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>25</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>4140</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>4</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <v>44125</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>0.3367</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>21</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>4658</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>4</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <v>44202</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="6">
         <v>0.24179999999999999</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>19</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>5531</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>4</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="5">
         <v>44214</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>0.253</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>18</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>6938</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <v>4</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="5">
         <v>44202</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6">
         <v>0.1888</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>18</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>6426</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>4</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="5">
         <v>44293</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
         <v>0.21390000000000001</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>17</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>4280</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>4</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="5">
         <v>44328</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>3</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="6">
         <v>0.33189999999999997</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>15</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>13250</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
         <v>4</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="5">
         <v>44085</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="6">
         <v>0.25130000000000002</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>15</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>4427</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="3">
         <v>4</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="5">
         <v>44078</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
         <v>0.1724</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>10</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <v>4154</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="3">
         <v>4</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="5">
         <v>44312</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6">
         <v>0.2303</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>9</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>4593</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="3">
         <v>4</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="5">
         <v>44312</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="21" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
         <v>0.14810000000000001</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>7</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>6809</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="3">
         <v>4</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="5">
         <v>44277</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="21" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
         <v>0.1673</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>7</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>4034</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="3">
         <v>4</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="5">
         <v>44328</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
         <v>0.2417</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="3">
         <v>5</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <v>1488</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="3">
         <v>4</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="5">
         <v>44085</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="21" customHeight="1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>3</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="6">
         <v>0.28660000000000002</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <v>32</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <v>9880</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="3">
         <v>3</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="5">
         <v>44181</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="21" customHeight="1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6">
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="3">
         <v>24</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="3">
         <v>3775</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="3">
         <v>3</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="5">
         <v>44312</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" ht="21" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>3</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="6">
         <v>0.32529999999999998</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="3">
         <v>23</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>6414</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="3">
         <v>3</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="5">
         <v>44293</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" ht="21" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6">
         <v>0.1948</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="3">
         <v>21</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <v>4393</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="3">
         <v>3</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="5">
         <v>44265</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" ht="21" customHeight="1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B55" s="1">
-        <v>2</v>
-      </c>
-      <c r="C55" s="3">
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="6">
         <v>0.2291</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="3">
         <v>20</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="3">
         <v>3347</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="3">
         <v>3</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="5">
         <v>44293</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" ht="21" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="1">
-        <v>2</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="6">
         <v>0.19550000000000001</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="3">
         <v>19</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="3">
         <v>7019</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="3">
         <v>3</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="5">
         <v>44125</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="1"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="21" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>3</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="6">
         <v>0.28029999999999999</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="3">
         <v>16</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="3">
         <v>5908</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="3">
         <v>3</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="5">
         <v>43999</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" ht="21" customHeight="1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="1">
-        <v>2</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="6">
         <v>0.21290000000000001</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="3">
         <v>16</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="3">
         <v>6968</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="3">
         <v>3</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="5">
         <v>44312</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="1"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" ht="21" customHeight="1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="1">
-        <v>2</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="6">
         <v>0.22570000000000001</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="3">
         <v>13</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="3">
         <v>4950</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="3">
         <v>3</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="5">
         <v>44328</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="1"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" ht="21" customHeight="1">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6">
         <v>0.161</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="3">
         <v>11</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="3">
         <v>4017</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="3">
         <v>3</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="5">
         <v>44202</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="1"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" ht="21" customHeight="1">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="1">
-        <v>2</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="6">
         <v>0.38129999999999997</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="3">
         <v>9</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="3">
         <v>2608</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="3">
         <v>3</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="5">
         <v>44181</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="1"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" ht="21" customHeight="1">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="1">
-        <v>2</v>
-      </c>
-      <c r="C69" s="3">
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="6">
         <v>0.28160000000000002</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="3">
         <v>8</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="3">
         <v>2922</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="3">
         <v>3</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="5">
         <v>43995</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="1"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" ht="21" customHeight="1">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="1">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3">
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="6">
         <v>0.1082</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="3">
         <v>8</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="3">
         <v>4981</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="3">
         <v>3</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="5">
         <v>44165</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="1"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" ht="21" customHeight="1">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="1">
-        <v>2</v>
-      </c>
-      <c r="C73" s="3">
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="6">
         <v>0.31009999999999999</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="3">
         <v>7</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="3">
         <v>2267</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="3">
         <v>3</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="5">
         <v>44293</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="1"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" ht="21" customHeight="1">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3">
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="6">
         <v>6.2E-2</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="3">
         <v>7</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="3">
         <v>5923</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="3">
         <v>3</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="5">
         <v>44032</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="6"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="1"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" ht="21" customHeight="1">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="1">
-        <v>2</v>
-      </c>
-      <c r="C77" s="3">
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="6">
         <v>0.38290000000000002</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="3">
         <v>6</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="3">
         <v>2898</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="3">
         <v>3</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="5">
         <v>44265</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="1"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="21" customHeight="1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="1">
-        <v>1</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="6">
         <v>0.24729999999999999</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="3">
         <v>6</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="3">
         <v>2260</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="3">
         <v>3</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="5">
         <v>44265</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="1"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="21" customHeight="1">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="3">
+      <c r="B81" s="7"/>
+      <c r="C81" s="6">
         <v>7.1599999999999997E-2</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="3">
         <v>6</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="3">
         <v>1836</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="3">
         <v>3</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="5">
         <v>44202</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="1"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" ht="21" customHeight="1">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="1">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="6">
         <v>0.28029999999999999</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="3">
         <v>5</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="3">
         <v>2502</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="3">
         <v>3</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="5">
         <v>44214</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="1"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" ht="21" customHeight="1">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="3">
         <v>3</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="6">
         <v>8.7599999999999997E-2</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="3">
         <v>51</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="3">
         <v>3341</v>
       </c>
-      <c r="G85" s="1">
-        <v>2</v>
-      </c>
-      <c r="H85" s="2">
+      <c r="G85" s="3">
+        <v>2</v>
+      </c>
+      <c r="H85" s="5">
         <v>44085</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="1"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="3">
         <v>3</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="6">
         <v>0.1089</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="3">
         <v>34</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="3">
         <v>5274</v>
       </c>
-      <c r="G87" s="1">
-        <v>2</v>
-      </c>
-      <c r="H87" s="2">
+      <c r="G87" s="3">
+        <v>2</v>
+      </c>
+      <c r="H87" s="5">
         <v>44146</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="6"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="1"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9" ht="21" customHeight="1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="3">
         <v>3</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="6">
         <v>0.16739999999999999</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="3">
         <v>33</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="3">
         <v>3667</v>
       </c>
-      <c r="G89" s="1">
-        <v>2</v>
-      </c>
-      <c r="H89" s="2">
+      <c r="G89" s="3">
+        <v>2</v>
+      </c>
+      <c r="H89" s="5">
         <v>44025</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="1"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9" ht="21" customHeight="1">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="3">
         <v>3</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="6">
         <v>0.2084</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="3">
         <v>33</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="3">
         <v>3210</v>
       </c>
-      <c r="G91" s="1">
-        <v>2</v>
-      </c>
-      <c r="H91" s="2">
+      <c r="G91" s="3">
+        <v>2</v>
+      </c>
+      <c r="H91" s="5">
         <v>43995</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="6"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="1"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9" ht="24" customHeight="1">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>3</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="6">
         <v>0.25230000000000002</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="3">
         <v>32</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="3">
         <v>3285</v>
       </c>
-      <c r="G93" s="1">
-        <v>2</v>
-      </c>
-      <c r="H93" s="2">
+      <c r="G93" s="3">
+        <v>2</v>
+      </c>
+      <c r="H93" s="5">
         <v>43985</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="1"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9" ht="21" customHeight="1">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="3">
         <v>3</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="6">
         <v>0.1996</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="3">
         <v>28</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="3">
         <v>2440</v>
       </c>
-      <c r="G95" s="1">
-        <v>2</v>
-      </c>
-      <c r="H95" s="2">
+      <c r="G95" s="3">
+        <v>2</v>
+      </c>
+      <c r="H95" s="5">
         <v>43936</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="1"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" ht="21" customHeight="1">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="1">
-        <v>2</v>
-      </c>
-      <c r="C97" s="3">
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" s="6">
         <v>0.19570000000000001</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="3">
         <v>25</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="3">
         <v>2765</v>
       </c>
-      <c r="G97" s="1">
-        <v>2</v>
-      </c>
-      <c r="H97" s="2">
+      <c r="G97" s="3">
+        <v>2</v>
+      </c>
+      <c r="H97" s="5">
         <v>43995</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="1"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" ht="24" customHeight="1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>3</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="6">
         <v>0.3014</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="3">
         <v>21</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="3">
         <v>7750</v>
       </c>
-      <c r="G99" s="1">
-        <v>2</v>
-      </c>
-      <c r="H99" s="2">
+      <c r="G99" s="3">
+        <v>2</v>
+      </c>
+      <c r="H99" s="5">
         <v>43584</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="1"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" ht="21" customHeight="1">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="3">
         <v>3</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="6">
         <v>0.1885</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="3">
         <v>18</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="3">
         <v>15437</v>
       </c>
-      <c r="G101" s="1">
-        <v>2</v>
-      </c>
-      <c r="H101" s="2">
+      <c r="G101" s="3">
+        <v>2</v>
+      </c>
+      <c r="H101" s="5">
         <v>44025</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="1"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" ht="21" customHeight="1">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B103" s="1">
-        <v>2</v>
-      </c>
-      <c r="C103" s="3">
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" s="6">
         <v>0.2087</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="3">
         <v>18</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="3">
         <v>5248</v>
       </c>
-      <c r="G103" s="1">
-        <v>2</v>
-      </c>
-      <c r="H103" s="2">
+      <c r="G103" s="3">
+        <v>2</v>
+      </c>
+      <c r="H103" s="5">
         <v>44125</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="1"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" ht="21" customHeight="1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="3">
         <v>3</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="6">
         <v>0.56879999999999997</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="3">
         <v>15</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="3">
         <v>3501</v>
       </c>
-      <c r="G105" s="1">
-        <v>2</v>
-      </c>
-      <c r="H105" s="2">
+      <c r="G105" s="3">
+        <v>2</v>
+      </c>
+      <c r="H105" s="5">
         <v>43817</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="6"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="1"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="3"/>
     </row>
     <row r="107" spans="1:9" ht="21" customHeight="1">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="3">
         <v>3</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="6">
         <v>0.3039</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="3">
         <v>13</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="3">
         <v>8187</v>
       </c>
-      <c r="G107" s="1">
-        <v>2</v>
-      </c>
-      <c r="H107" s="2">
+      <c r="G107" s="3">
+        <v>2</v>
+      </c>
+      <c r="H107" s="5">
         <v>43995</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="1"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9" ht="21" customHeight="1">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="1">
-        <v>2</v>
-      </c>
-      <c r="C109" s="3">
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109" s="6">
         <v>0.21640000000000001</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="3">
         <v>13</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="3">
         <v>8807</v>
       </c>
-      <c r="G109" s="1">
-        <v>2</v>
-      </c>
-      <c r="H109" s="2">
+      <c r="G109" s="3">
+        <v>2</v>
+      </c>
+      <c r="H109" s="5">
         <v>44085</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="6"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="1"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="3"/>
     </row>
     <row r="111" spans="1:9" ht="21" customHeight="1">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B111" s="1">
-        <v>1</v>
-      </c>
-      <c r="C111" s="3">
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+      <c r="C111" s="6">
         <v>0.1885</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="3">
         <v>13</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="3">
         <v>1999</v>
       </c>
-      <c r="G111" s="1">
-        <v>2</v>
-      </c>
-      <c r="H111" s="2">
+      <c r="G111" s="3">
+        <v>2</v>
+      </c>
+      <c r="H111" s="5">
         <v>44013</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="1"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="3"/>
     </row>
     <row r="113" spans="1:9" ht="21" customHeight="1">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="3">
         <v>3</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="6">
         <v>0.378</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="3">
         <v>12</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="3">
         <v>6780</v>
       </c>
-      <c r="G113" s="1">
-        <v>2</v>
-      </c>
-      <c r="H113" s="2">
+      <c r="G113" s="3">
+        <v>2</v>
+      </c>
+      <c r="H113" s="5">
         <v>44078</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="1"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="3"/>
     </row>
     <row r="115" spans="1:9" ht="21" customHeight="1">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B115" s="1">
-        <v>2</v>
-      </c>
-      <c r="C115" s="3">
+      <c r="B115" s="3">
+        <v>2</v>
+      </c>
+      <c r="C115" s="6">
         <v>0.25109999999999999</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="3">
         <v>12</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="3">
         <v>2555</v>
       </c>
-      <c r="G115" s="1">
-        <v>2</v>
-      </c>
-      <c r="H115" s="2">
+      <c r="G115" s="3">
+        <v>2</v>
+      </c>
+      <c r="H115" s="5">
         <v>43971</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="3"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="6"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="1"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="3"/>
     </row>
     <row r="117" spans="1:9" ht="21" customHeight="1">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="3">
         <v>3</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="6">
         <v>0.58720000000000006</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="3">
         <v>11</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="3">
         <v>4164</v>
       </c>
-      <c r="G117" s="1">
-        <v>2</v>
-      </c>
-      <c r="H117" s="2">
+      <c r="G117" s="3">
+        <v>2</v>
+      </c>
+      <c r="H117" s="5">
         <v>44165</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="3"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="6"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="1"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="21" customHeight="1">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B119" s="1">
-        <v>2</v>
-      </c>
-      <c r="C119" s="3">
+      <c r="B119" s="3">
+        <v>2</v>
+      </c>
+      <c r="C119" s="6">
         <v>0.25009999999999999</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="3">
         <v>11</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="3">
         <v>6359</v>
       </c>
-      <c r="G119" s="1">
-        <v>2</v>
-      </c>
-      <c r="H119" s="2">
+      <c r="G119" s="3">
+        <v>2</v>
+      </c>
+      <c r="H119" s="5">
         <v>43754</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="6"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="1"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="3"/>
     </row>
     <row r="121" spans="1:9" ht="21" customHeight="1">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B121" s="1">
-        <v>2</v>
-      </c>
-      <c r="C121" s="3">
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
+      <c r="C121" s="6">
         <v>0.2281</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="3">
         <v>9</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="3">
         <v>4799</v>
       </c>
-      <c r="G121" s="1">
-        <v>2</v>
-      </c>
-      <c r="H121" s="2">
+      <c r="G121" s="3">
+        <v>2</v>
+      </c>
+      <c r="H121" s="5">
         <v>44277</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="6"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="1"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9" ht="21" customHeight="1">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B123" s="1">
-        <v>2</v>
-      </c>
-      <c r="C123" s="3">
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" s="6">
         <v>0.318</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="3">
         <v>9</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="3">
         <v>3184</v>
       </c>
-      <c r="G123" s="1">
-        <v>2</v>
-      </c>
-      <c r="H123" s="2">
+      <c r="G123" s="3">
+        <v>2</v>
+      </c>
+      <c r="H123" s="5">
         <v>43985</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="6"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="1"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="3"/>
     </row>
     <row r="125" spans="1:9" ht="21" customHeight="1">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="1">
-        <v>2</v>
-      </c>
-      <c r="C125" s="3">
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" s="6">
         <v>0.3604</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="3">
         <v>9</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="3">
         <v>2175</v>
       </c>
-      <c r="G125" s="1">
-        <v>2</v>
-      </c>
-      <c r="H125" s="2">
+      <c r="G125" s="3">
+        <v>2</v>
+      </c>
+      <c r="H125" s="5">
         <v>43985</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="6"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="1"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:9" ht="21" customHeight="1">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="1">
-        <v>1</v>
-      </c>
-      <c r="C127" s="3">
+      <c r="B127" s="3">
+        <v>1</v>
+      </c>
+      <c r="C127" s="6">
         <v>0.18260000000000001</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="3">
         <v>9</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="3">
         <v>2865</v>
       </c>
-      <c r="G127" s="1">
-        <v>2</v>
-      </c>
-      <c r="H127" s="2">
+      <c r="G127" s="3">
+        <v>2</v>
+      </c>
+      <c r="H127" s="5">
         <v>44277</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="6"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="1"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" ht="21" customHeight="1">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="3">
         <v>3</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="6">
         <v>0.49759999999999999</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="3">
         <v>8</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="3">
         <v>2125</v>
       </c>
-      <c r="G129" s="1">
-        <v>2</v>
-      </c>
-      <c r="H129" s="2">
+      <c r="G129" s="3">
+        <v>2</v>
+      </c>
+      <c r="H129" s="5">
         <v>44025</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="6"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="1"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" ht="21" customHeight="1">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B131" s="6"/>
-      <c r="C131" s="3">
+      <c r="B131" s="7"/>
+      <c r="C131" s="6">
         <v>1.4E-2</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="3">
         <v>8</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="3">
         <v>2454</v>
       </c>
-      <c r="G131" s="1">
-        <v>2</v>
-      </c>
-      <c r="H131" s="2">
+      <c r="G131" s="3">
+        <v>2</v>
+      </c>
+      <c r="H131" s="5">
         <v>44146</v>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A132" s="1"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="6"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="1"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9" ht="21" customHeight="1">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B133" s="1">
-        <v>2</v>
-      </c>
-      <c r="C133" s="3">
+      <c r="B133" s="3">
+        <v>2</v>
+      </c>
+      <c r="C133" s="6">
         <v>0.28339999999999999</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="3">
         <v>7</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="3">
         <v>5020</v>
       </c>
-      <c r="G133" s="1">
-        <v>2</v>
-      </c>
-      <c r="H133" s="2">
+      <c r="G133" s="3">
+        <v>2</v>
+      </c>
+      <c r="H133" s="5">
         <v>44125</v>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="6"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="1"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" ht="21" customHeight="1">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B135" s="1">
-        <v>2</v>
-      </c>
-      <c r="C135" s="3">
+      <c r="B135" s="3">
+        <v>2</v>
+      </c>
+      <c r="C135" s="6">
         <v>0.30680000000000002</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="3">
         <v>7</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="3">
         <v>2777</v>
       </c>
-      <c r="G135" s="1">
-        <v>2</v>
-      </c>
-      <c r="H135" s="2">
+      <c r="G135" s="3">
+        <v>2</v>
+      </c>
+      <c r="H135" s="5">
         <v>44328</v>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="6"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="1"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9" ht="21" customHeight="1">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B137" s="1">
-        <v>2</v>
-      </c>
-      <c r="C137" s="3">
+      <c r="B137" s="3">
+        <v>2</v>
+      </c>
+      <c r="C137" s="6">
         <v>0.26679999999999998</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="3">
         <v>7</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="3">
         <v>2451</v>
       </c>
-      <c r="G137" s="1">
-        <v>2</v>
-      </c>
-      <c r="H137" s="2">
+      <c r="G137" s="3">
+        <v>2</v>
+      </c>
+      <c r="H137" s="5">
         <v>43985</v>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="6"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="1"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9" ht="21" customHeight="1">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B139" s="1">
-        <v>2</v>
-      </c>
-      <c r="C139" s="3">
+      <c r="B139" s="3">
+        <v>2</v>
+      </c>
+      <c r="C139" s="6">
         <v>0.25519999999999998</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="3">
         <v>5</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="3">
         <v>8262</v>
       </c>
-      <c r="G139" s="1">
-        <v>2</v>
-      </c>
-      <c r="H139" s="2">
+      <c r="G139" s="3">
+        <v>2</v>
+      </c>
+      <c r="H139" s="5">
         <v>43971</v>
       </c>
-      <c r="I139" s="1">
+      <c r="I139" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="6"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="1"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="3"/>
     </row>
     <row r="141" spans="1:9" ht="21" customHeight="1">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B141" s="1">
-        <v>2</v>
-      </c>
-      <c r="C141" s="3">
+      <c r="B141" s="3">
+        <v>2</v>
+      </c>
+      <c r="C141" s="6">
         <v>0.44440000000000002</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="3">
         <v>4</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="3">
         <v>1410</v>
       </c>
-      <c r="G141" s="1">
-        <v>2</v>
-      </c>
-      <c r="H141" s="2">
+      <c r="G141" s="3">
+        <v>2</v>
+      </c>
+      <c r="H141" s="5">
         <v>44293</v>
       </c>
-      <c r="I141" s="1">
+      <c r="I141" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="6"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="1"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9" ht="21" customHeight="1">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="3">
+      <c r="B143" s="7"/>
+      <c r="C143" s="6">
         <v>0.11840000000000001</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="3">
         <v>4</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="3">
         <v>644</v>
       </c>
-      <c r="G143" s="1">
-        <v>2</v>
-      </c>
-      <c r="H143" s="2">
+      <c r="G143" s="3">
+        <v>2</v>
+      </c>
+      <c r="H143" s="5">
         <v>43971</v>
       </c>
-      <c r="I143" s="1">
+      <c r="I143" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A144" s="1"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="6"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="1"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" ht="21" customHeight="1">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B145" s="1">
-        <v>1</v>
-      </c>
-      <c r="C145" s="3">
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
+      <c r="C145" s="6">
         <v>0.26479999999999998</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="3">
         <v>3</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="3">
         <v>1722</v>
       </c>
-      <c r="G145" s="1">
-        <v>2</v>
-      </c>
-      <c r="H145" s="2">
+      <c r="G145" s="3">
+        <v>2</v>
+      </c>
+      <c r="H145" s="5">
         <v>44265</v>
       </c>
-      <c r="I145" s="1">
+      <c r="I145" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="6"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="1"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9" ht="21" customHeight="1">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="3">
+      <c r="B147" s="7"/>
+      <c r="C147" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="3">
         <v>3</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="3">
         <v>1672</v>
       </c>
-      <c r="G147" s="1">
-        <v>2</v>
-      </c>
-      <c r="H147" s="2">
+      <c r="G147" s="3">
+        <v>2</v>
+      </c>
+      <c r="H147" s="5">
         <v>43829</v>
       </c>
-      <c r="I147" s="1">
+      <c r="I147" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A148" s="1"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="6"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="1"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="3"/>
     </row>
     <row r="149" spans="1:9" ht="21" customHeight="1">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="3">
+      <c r="B149" s="7"/>
+      <c r="C149" s="6">
         <v>0.1739</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="3">
         <v>3</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="3">
         <v>953</v>
       </c>
-      <c r="G149" s="1">
-        <v>2</v>
-      </c>
-      <c r="H149" s="2">
+      <c r="G149" s="3">
+        <v>2</v>
+      </c>
+      <c r="H149" s="5">
         <v>44146</v>
       </c>
-      <c r="I149" s="1">
+      <c r="I149" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A150" s="1"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="6"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="1"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:9" ht="21" customHeight="1">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="3">
+      <c r="B151" s="7"/>
+      <c r="C151" s="6">
         <v>0.16669999999999999</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="3">
         <v>3</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="3">
         <v>675</v>
       </c>
-      <c r="G151" s="1">
-        <v>2</v>
-      </c>
-      <c r="H151" s="2">
+      <c r="G151" s="3">
+        <v>2</v>
+      </c>
+      <c r="H151" s="5">
         <v>44277</v>
       </c>
-      <c r="I151" s="1">
+      <c r="I151" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A152" s="1"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="6"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="1"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="3"/>
     </row>
     <row r="153" spans="1:9" ht="21" customHeight="1">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="3">
+      <c r="B153" s="7"/>
+      <c r="C153" s="6">
         <v>0.1731</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E153" s="1">
-        <v>2</v>
-      </c>
-      <c r="F153" s="1">
+      <c r="E153" s="3">
+        <v>2</v>
+      </c>
+      <c r="F153" s="3">
         <v>668</v>
       </c>
-      <c r="G153" s="1">
-        <v>2</v>
-      </c>
-      <c r="H153" s="2">
+      <c r="G153" s="3">
+        <v>2</v>
+      </c>
+      <c r="H153" s="5">
         <v>44165</v>
       </c>
-      <c r="I153" s="1">
+      <c r="I153" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A154" s="1"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="6"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="1"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:9" ht="21" customHeight="1">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="3">
+      <c r="B155" s="7"/>
+      <c r="C155" s="6">
         <v>4.8099999999999997E-2</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E155" s="1">
-        <v>2</v>
-      </c>
-      <c r="F155" s="1">
+      <c r="E155" s="3">
+        <v>2</v>
+      </c>
+      <c r="F155" s="3">
         <v>746</v>
       </c>
-      <c r="G155" s="1">
-        <v>2</v>
-      </c>
-      <c r="H155" s="2">
+      <c r="G155" s="3">
+        <v>2</v>
+      </c>
+      <c r="H155" s="5">
         <v>44265</v>
       </c>
-      <c r="I155" s="1">
+      <c r="I155" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A156" s="1"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="6"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="1"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="3"/>
     </row>
     <row r="157" spans="1:9" ht="21" customHeight="1">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="3">
+      <c r="B157" s="7"/>
+      <c r="C157" s="6">
         <v>0.1656</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E157" s="1">
-        <v>2</v>
-      </c>
-      <c r="F157" s="1">
+      <c r="E157" s="3">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3">
         <v>2641</v>
       </c>
-      <c r="G157" s="1">
-        <v>2</v>
-      </c>
-      <c r="H157" s="2">
+      <c r="G157" s="3">
+        <v>2</v>
+      </c>
+      <c r="H157" s="5">
         <v>44181</v>
       </c>
-      <c r="I157" s="1">
+      <c r="I157" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A158" s="1"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="6"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="1"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9" ht="21" customHeight="1">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B159" s="1">
-        <v>2</v>
-      </c>
-      <c r="C159" s="3">
+      <c r="B159" s="3">
+        <v>2</v>
+      </c>
+      <c r="C159" s="6">
         <v>0.1258</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="3">
         <v>27</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="3">
         <v>5190</v>
       </c>
-      <c r="G159" s="1">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2">
+      <c r="G159" s="3">
+        <v>1</v>
+      </c>
+      <c r="H159" s="5">
         <v>44146</v>
       </c>
-      <c r="I159" s="1">
+      <c r="I159" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="3"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="6"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="1"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" ht="21" customHeight="1">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B161" s="1">
-        <v>2</v>
-      </c>
-      <c r="C161" s="3">
+      <c r="B161" s="3">
+        <v>2</v>
+      </c>
+      <c r="C161" s="6">
         <v>0.19539999999999999</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="3">
         <v>22</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="3">
         <v>2994</v>
       </c>
-      <c r="G161" s="1">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2">
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H161" s="5">
         <v>43661</v>
       </c>
-      <c r="I161" s="1">
+      <c r="I161" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="3"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="6"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="1"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="3"/>
     </row>
     <row r="163" spans="1:9" ht="21" customHeight="1">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="3">
         <v>3</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="6">
         <v>0.15390000000000001</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="3">
         <v>21</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="3">
         <v>10939</v>
       </c>
-      <c r="G163" s="1">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2">
+      <c r="G163" s="3">
+        <v>1</v>
+      </c>
+      <c r="H163" s="5">
         <v>43957</v>
       </c>
-      <c r="I163" s="1">
+      <c r="I163" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="3"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="6"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="1"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="3"/>
     </row>
     <row r="165" spans="1:9" ht="21" customHeight="1">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B165" s="1">
-        <v>2</v>
-      </c>
-      <c r="C165" s="3">
+      <c r="B165" s="3">
+        <v>2</v>
+      </c>
+      <c r="C165" s="6">
         <v>0.14399999999999999</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="3">
         <v>18</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="3">
         <v>4334</v>
       </c>
-      <c r="G165" s="1">
-        <v>1</v>
-      </c>
-      <c r="H165" s="2">
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
+      <c r="H165" s="5">
         <v>44111</v>
       </c>
-      <c r="I165" s="1">
+      <c r="I165" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="3"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="6"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="1"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="3"/>
     </row>
     <row r="167" spans="1:9" ht="21" customHeight="1">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B167" s="1">
-        <v>2</v>
-      </c>
-      <c r="C167" s="3">
+      <c r="B167" s="3">
+        <v>2</v>
+      </c>
+      <c r="C167" s="6">
         <v>0.1807</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="3">
         <v>17</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167" s="3">
         <v>4286</v>
       </c>
-      <c r="G167" s="1">
-        <v>1</v>
-      </c>
-      <c r="H167" s="2">
+      <c r="G167" s="3">
+        <v>1</v>
+      </c>
+      <c r="H167" s="5">
         <v>43614</v>
       </c>
-      <c r="I167" s="1">
+      <c r="I167" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="3"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="6"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="1"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="3"/>
     </row>
     <row r="169" spans="1:9" ht="21" customHeight="1">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="3">
         <v>3</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="6">
         <v>0.2382</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="3">
         <v>16</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="3">
         <v>12697</v>
       </c>
-      <c r="G169" s="1">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2">
+      <c r="G169" s="3">
+        <v>1</v>
+      </c>
+      <c r="H169" s="5">
         <v>43714</v>
       </c>
-      <c r="I169" s="1">
-        <v>0</v>
+      <c r="I169" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="3"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="6"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="1"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="3"/>
     </row>
     <row r="171" spans="1:9" ht="21" customHeight="1">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="1">
-        <v>1</v>
-      </c>
-      <c r="C171" s="3">
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+      <c r="C171" s="6">
         <v>0.13600000000000001</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="3">
         <v>16</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171" s="3">
         <v>1891</v>
       </c>
-      <c r="G171" s="1">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2">
+      <c r="G171" s="3">
+        <v>1</v>
+      </c>
+      <c r="H171" s="5">
         <v>44312</v>
       </c>
-      <c r="I171" s="1">
+      <c r="I171" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="6"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="1"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="3"/>
     </row>
     <row r="173" spans="1:9" ht="21" customHeight="1">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B173" s="1">
-        <v>2</v>
-      </c>
-      <c r="C173" s="3">
+      <c r="B173" s="3">
+        <v>2</v>
+      </c>
+      <c r="C173" s="6">
         <v>0.2107</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="3">
         <v>13</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173" s="3">
         <v>3358</v>
       </c>
-      <c r="G173" s="1">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2">
+      <c r="G173" s="3">
+        <v>1</v>
+      </c>
+      <c r="H173" s="5">
         <v>43957</v>
       </c>
-      <c r="I173" s="1">
+      <c r="I173" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="3"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="6"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="1"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="3"/>
     </row>
     <row r="175" spans="1:9" ht="21" customHeight="1">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B175" s="1">
-        <v>2</v>
-      </c>
-      <c r="C175" s="3">
+      <c r="B175" s="3">
+        <v>2</v>
+      </c>
+      <c r="C175" s="6">
         <v>0.13159999999999999</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="3">
         <v>12</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175" s="3">
         <v>9119</v>
       </c>
-      <c r="G175" s="1">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2">
+      <c r="G175" s="3">
+        <v>1</v>
+      </c>
+      <c r="H175" s="5">
         <v>43999</v>
       </c>
-      <c r="I175" s="1">
+      <c r="I175" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="3"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="6"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="1"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="3"/>
     </row>
     <row r="177" spans="1:9" ht="21" customHeight="1">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B177" s="1">
-        <v>2</v>
-      </c>
-      <c r="C177" s="3">
+      <c r="B177" s="3">
+        <v>2</v>
+      </c>
+      <c r="C177" s="6">
         <v>0.20169999999999999</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177" s="3">
         <v>12</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177" s="3">
         <v>4256</v>
       </c>
-      <c r="G177" s="1">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2">
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H177" s="5">
         <v>43971</v>
       </c>
-      <c r="I177" s="1">
+      <c r="I177" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="3"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="6"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="1"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="3"/>
     </row>
     <row r="179" spans="1:9" ht="21" customHeight="1">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B179" s="1">
-        <v>2</v>
-      </c>
-      <c r="C179" s="3">
+      <c r="B179" s="3">
+        <v>2</v>
+      </c>
+      <c r="C179" s="6">
         <v>0.23960000000000001</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179" s="3">
         <v>12</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179" s="3">
         <v>6889</v>
       </c>
-      <c r="G179" s="1">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2">
+      <c r="G179" s="3">
+        <v>1</v>
+      </c>
+      <c r="H179" s="5">
         <v>43668</v>
       </c>
-      <c r="I179" s="1">
+      <c r="I179" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="3"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="6"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="1"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="3"/>
     </row>
     <row r="181" spans="1:9" ht="21" customHeight="1">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B181" s="1">
-        <v>2</v>
-      </c>
-      <c r="C181" s="3">
+      <c r="B181" s="3">
+        <v>2</v>
+      </c>
+      <c r="C181" s="6">
         <v>0.17030000000000001</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181" s="3">
         <v>11</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181" s="3">
         <v>11384</v>
       </c>
-      <c r="G181" s="1">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2">
+      <c r="G181" s="3">
+        <v>1</v>
+      </c>
+      <c r="H181" s="5">
         <v>43528</v>
       </c>
-      <c r="I181" s="1">
+      <c r="I181" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="3"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="6"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="1"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="3"/>
     </row>
     <row r="183" spans="1:9" ht="21" customHeight="1">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B183" s="1">
-        <v>2</v>
-      </c>
-      <c r="C183" s="3">
+      <c r="B183" s="3">
+        <v>2</v>
+      </c>
+      <c r="C183" s="6">
         <v>0.311</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183" s="3">
         <v>11</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F183" s="3">
         <v>5026</v>
       </c>
-      <c r="G183" s="1">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2">
+      <c r="G183" s="3">
+        <v>1</v>
+      </c>
+      <c r="H183" s="5">
         <v>44328</v>
       </c>
-      <c r="I183" s="1">
+      <c r="I183" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="3"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="6"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="1"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="3"/>
     </row>
     <row r="185" spans="1:9" ht="21" customHeight="1">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B185" s="1">
-        <v>1</v>
-      </c>
-      <c r="C185" s="3">
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+      <c r="C185" s="6">
         <v>0.14749999999999999</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="3">
         <v>11</v>
       </c>
-      <c r="F185" s="1">
+      <c r="F185" s="3">
         <v>4332</v>
       </c>
-      <c r="G185" s="1">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2">
+      <c r="G185" s="3">
+        <v>1</v>
+      </c>
+      <c r="H185" s="5">
         <v>43803</v>
       </c>
-      <c r="I185" s="1">
+      <c r="I185" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="3"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="6"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="1"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="3"/>
     </row>
     <row r="187" spans="1:9" ht="21" customHeight="1">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="1">
-        <v>1</v>
-      </c>
-      <c r="C187" s="3">
+      <c r="B187" s="3">
+        <v>1</v>
+      </c>
+      <c r="C187" s="6">
         <v>0.11550000000000001</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187" s="3">
         <v>11</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187" s="3">
         <v>5001</v>
       </c>
-      <c r="G187" s="1">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2">
+      <c r="G187" s="3">
+        <v>1</v>
+      </c>
+      <c r="H187" s="5">
         <v>43908</v>
       </c>
-      <c r="I187" s="1">
+      <c r="I187" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="3"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="6"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="1"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="3"/>
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B189" s="1">
-        <v>2</v>
-      </c>
-      <c r="C189" s="3">
+      <c r="B189" s="3">
+        <v>2</v>
+      </c>
+      <c r="C189" s="6">
         <v>0.25669999999999998</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="3">
         <v>10</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189" s="3">
         <v>2806</v>
       </c>
-      <c r="G189" s="1">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2">
+      <c r="G189" s="3">
+        <v>1</v>
+      </c>
+      <c r="H189" s="5">
         <v>44181</v>
       </c>
-      <c r="I189" s="1">
+      <c r="I189" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="3"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="6"/>
       <c r="D190" s="4"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="1"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="3"/>
     </row>
     <row r="191" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B191" s="1">
-        <v>2</v>
-      </c>
-      <c r="C191" s="3">
+      <c r="B191" s="3">
+        <v>2</v>
+      </c>
+      <c r="C191" s="6">
         <v>0.28050000000000003</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191" s="3">
         <v>8</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191" s="3">
         <v>3451</v>
       </c>
-      <c r="G191" s="1">
-        <v>1</v>
-      </c>
-      <c r="H191" s="2">
+      <c r="G191" s="3">
+        <v>1</v>
+      </c>
+      <c r="H191" s="5">
         <v>43985</v>
       </c>
-      <c r="I191" s="1">
+      <c r="I191" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="3"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="6"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="1"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="3"/>
     </row>
     <row r="193" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="1">
-        <v>2</v>
-      </c>
-      <c r="C193" s="3">
+      <c r="B193" s="3">
+        <v>2</v>
+      </c>
+      <c r="C193" s="6">
         <v>0.43559999999999999</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="3">
         <v>7</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F193" s="3">
         <v>1735</v>
       </c>
-      <c r="G193" s="1">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2">
+      <c r="G193" s="3">
+        <v>1</v>
+      </c>
+      <c r="H193" s="5">
         <v>43936</v>
       </c>
-      <c r="I193" s="1">
+      <c r="I193" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="3"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="6"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="1"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="3"/>
     </row>
     <row r="195" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B195" s="1">
-        <v>2</v>
-      </c>
-      <c r="C195" s="3">
+      <c r="B195" s="3">
+        <v>2</v>
+      </c>
+      <c r="C195" s="6">
         <v>0.1648</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195" s="3">
         <v>6</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="3">
         <v>8554</v>
       </c>
-      <c r="G195" s="1">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2">
+      <c r="G195" s="3">
+        <v>1</v>
+      </c>
+      <c r="H195" s="5">
         <v>44032</v>
       </c>
-      <c r="I195" s="1">
+      <c r="I195" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="3"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="6"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="1"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B197" s="1">
-        <v>1</v>
-      </c>
-      <c r="C197" s="3">
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+      <c r="C197" s="6">
         <v>0.10539999999999999</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197" s="3">
         <v>6</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F197" s="3">
         <v>7591</v>
       </c>
-      <c r="G197" s="1">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2">
+      <c r="G197" s="3">
+        <v>1</v>
+      </c>
+      <c r="H197" s="5">
         <v>43936</v>
       </c>
-      <c r="I197" s="1">
+      <c r="I197" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="3"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="6"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="1"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="3"/>
     </row>
     <row r="199" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B199" s="1">
-        <v>1</v>
-      </c>
-      <c r="C199" s="3">
+      <c r="B199" s="3">
+        <v>1</v>
+      </c>
+      <c r="C199" s="6">
         <v>0.11550000000000001</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199" s="3">
         <v>6</v>
       </c>
-      <c r="F199" s="1">
+      <c r="F199" s="3">
         <v>3954</v>
       </c>
-      <c r="G199" s="1">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2">
+      <c r="G199" s="3">
+        <v>1</v>
+      </c>
+      <c r="H199" s="5">
         <v>43936</v>
       </c>
-      <c r="I199" s="1">
+      <c r="I199" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="6"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="1"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="3"/>
     </row>
     <row r="201" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="3">
+      <c r="B201" s="7"/>
+      <c r="C201" s="6">
         <v>0.1198</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201" s="3">
         <v>5</v>
       </c>
-      <c r="F201" s="1">
+      <c r="F201" s="3">
         <v>2452</v>
       </c>
-      <c r="G201" s="1">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2">
+      <c r="G201" s="3">
+        <v>1</v>
+      </c>
+      <c r="H201" s="5">
         <v>43544</v>
       </c>
-      <c r="I201" s="1">
+      <c r="I201" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A202" s="1"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="3"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="6"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="1"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="3"/>
     </row>
     <row r="203" spans="1:9" ht="21" customHeight="1">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B203" s="1">
-        <v>2</v>
-      </c>
-      <c r="C203" s="3">
+      <c r="B203" s="3">
+        <v>2</v>
+      </c>
+      <c r="C203" s="6">
         <v>0.37569999999999998</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203" s="3">
         <v>3</v>
       </c>
-      <c r="F203" s="1">
+      <c r="F203" s="3">
         <v>3395</v>
       </c>
-      <c r="G203" s="1">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2">
+      <c r="G203" s="3">
+        <v>1</v>
+      </c>
+      <c r="H203" s="5">
         <v>44214</v>
       </c>
-      <c r="I203" s="1">
+      <c r="I203" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="3"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="6"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="1"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="3"/>
     </row>
     <row r="205" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B205" s="1">
-        <v>1</v>
-      </c>
-      <c r="C205" s="3">
+      <c r="B205" s="3">
+        <v>1</v>
+      </c>
+      <c r="C205" s="6">
         <v>0.26850000000000002</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205" s="3">
         <v>3</v>
       </c>
-      <c r="F205" s="1">
+      <c r="F205" s="3">
         <v>1362</v>
       </c>
-      <c r="G205" s="1">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2">
+      <c r="G205" s="3">
+        <v>1</v>
+      </c>
+      <c r="H205" s="5">
         <v>43528</v>
       </c>
-      <c r="I205" s="1">
+      <c r="I205" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="3"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="6"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="1"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="3"/>
     </row>
     <row r="207" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B207" s="6"/>
-      <c r="C207" s="5">
+      <c r="B207" s="7"/>
+      <c r="C207" s="8">
         <v>0</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207" s="3">
         <v>3</v>
       </c>
-      <c r="F207" s="1">
+      <c r="F207" s="3">
         <v>3071</v>
       </c>
-      <c r="G207" s="1">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2">
+      <c r="G207" s="3">
+        <v>1</v>
+      </c>
+      <c r="H207" s="5">
         <v>43740</v>
       </c>
-      <c r="I207" s="1">
+      <c r="I207" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A208" s="1"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="5"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="8"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="1"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="3"/>
     </row>
     <row r="209" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B209" s="1">
-        <v>2</v>
-      </c>
-      <c r="C209" s="5">
+      <c r="B209" s="3">
+        <v>2</v>
+      </c>
+      <c r="C209" s="8">
         <v>0.4</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E209" s="1">
-        <v>2</v>
-      </c>
-      <c r="F209" s="1">
+      <c r="E209" s="3">
+        <v>2</v>
+      </c>
+      <c r="F209" s="3">
         <v>599</v>
       </c>
-      <c r="G209" s="1">
-        <v>1</v>
-      </c>
-      <c r="H209" s="2">
+      <c r="G209" s="3">
+        <v>1</v>
+      </c>
+      <c r="H209" s="5">
         <v>43829</v>
       </c>
-      <c r="I209" s="1">
+      <c r="I209" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="5"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="8"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="1"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="3"/>
     </row>
     <row r="211" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B211" s="6"/>
-      <c r="C211" s="5">
+      <c r="B211" s="7"/>
+      <c r="C211" s="8">
         <v>0</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E211" s="1">
-        <v>2</v>
-      </c>
-      <c r="F211" s="1">
+      <c r="E211" s="3">
+        <v>2</v>
+      </c>
+      <c r="F211" s="3">
         <v>205</v>
       </c>
-      <c r="G211" s="1">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2">
+      <c r="G211" s="3">
+        <v>1</v>
+      </c>
+      <c r="H211" s="5">
         <v>43668</v>
       </c>
-      <c r="I211" s="1">
+      <c r="I211" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A212" s="1"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="8"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="1"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="3"/>
     </row>
     <row r="213" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B213" s="1">
-        <v>2</v>
-      </c>
-      <c r="C213" s="3">
+      <c r="B213" s="3">
+        <v>2</v>
+      </c>
+      <c r="C213" s="6">
         <v>0.42859999999999998</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E213" s="1">
-        <v>1</v>
-      </c>
-      <c r="F213" s="1">
+      <c r="E213" s="3">
+        <v>1</v>
+      </c>
+      <c r="F213" s="3">
         <v>921</v>
       </c>
-      <c r="G213" s="1">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2">
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+      <c r="H213" s="5">
         <v>43626</v>
       </c>
-      <c r="I213" s="1">
+      <c r="I213" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="3"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="6"/>
       <c r="D214" s="4"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="1"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="3"/>
     </row>
     <row r="215" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B215" s="1">
-        <v>1</v>
-      </c>
-      <c r="C215" s="3">
+      <c r="B215" s="3">
+        <v>1</v>
+      </c>
+      <c r="C215" s="6">
         <v>0.34379999999999999</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E215" s="1">
-        <v>1</v>
-      </c>
-      <c r="F215" s="1">
+      <c r="E215" s="3">
+        <v>1</v>
+      </c>
+      <c r="F215" s="3">
         <v>444</v>
       </c>
-      <c r="G215" s="1">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2">
+      <c r="G215" s="3">
+        <v>1</v>
+      </c>
+      <c r="H215" s="5">
         <v>43544</v>
       </c>
-      <c r="I215" s="1">
+      <c r="I215" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="3"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="6"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="1"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="3"/>
     </row>
     <row r="217" spans="1:9" ht="16.5" customHeight="1"/>
     <row r="218" spans="1:9" ht="16.5" customHeight="1"/>
@@ -5592,24 +5592,950 @@
     <row r="295" ht="16.5" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:I216" xr:uid="{DB34C744-4366-43EF-B90C-A462B6A9762F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I216">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I216">
       <sortCondition descending="1" ref="G1:G216"/>
     </sortState>
   </autoFilter>
   <mergeCells count="976">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="I215:I216"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="I205:I206"/>
+    <mergeCell ref="I207:I208"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="I209:I210"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="I201:I202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="I203:I204"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="I195:I196"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="I197:I198"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I199:I200"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
@@ -5634,945 +6560,19 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I199:I200"/>
-    <mergeCell ref="I183:I184"/>
-    <mergeCell ref="I187:I188"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="I175:I176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="H177:H178"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="H179:H180"/>
-    <mergeCell ref="I179:I180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="I181:I182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="H183:H184"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="I195:I196"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="I197:I198"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="I201:I202"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="I203:I204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="I205:I206"/>
-    <mergeCell ref="I207:I208"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="I209:I210"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="I211:I212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="I215:I216"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">

--- a/gpe/Problem_List.xlsx
+++ b/gpe/Problem_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpha\Desktop\cpp\gpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F647D4C-8C8E-43EC-AA37-0315E35BB5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A811D0FC-E75C-451B-8DF4-969C2F0F72EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{21DD07EA-1B5E-43B6-9AD5-97FF9BC94BD3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$I$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$I$214</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>Problem</t>
   </si>
@@ -582,9 +582,6 @@
   </si>
   <si>
     <t>116/469</t>
-  </si>
-  <si>
-    <t>22171: Dungeon Master  </t>
   </si>
   <si>
     <t>193/768</t>
@@ -718,6 +715,54 @@
   </si>
   <si>
     <t>複習率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10566 : Fourth Point!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10404: Primary Arithmetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10709: Recover Factorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10023: Square root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10036: Divisibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008: What's Cryptanalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode 1608: Search in Special array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>299: Train swapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode 1122: Relative Sort Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10107: What is the Median?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>722: Lakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22171: Dungeon Master</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB34C744-4366-43EF-B90C-A462B6A9762F}">
-  <dimension ref="A1:O295"/>
+  <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
@@ -1225,17 +1270,17 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L1" s="2">
         <f>COUNTIF(I:I, "&gt;0")/(COUNTA(I:I)-1)</f>
-        <v>0.15887850467289719</v>
+        <v>0.15254237288135594</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O1" s="2">
         <f>SUMIF(I:I, "&gt;0")/COUNTIF(I:I, "&gt;0") - 1</f>
@@ -1259,28 +1304,28 @@
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
-        <v>0.13270000000000001</v>
+        <v>0.25130000000000002</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E3" s="3">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
-        <v>7759</v>
+        <v>4427</v>
       </c>
       <c r="G3" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3" s="5">
-        <v>44202</v>
+        <v>45917</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1299,31 +1344,31 @@
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
-        <v>0.22339999999999999</v>
+        <v>0.2291</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E5" s="3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>9512</v>
+        <v>3347</v>
       </c>
       <c r="G5" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="5">
-        <v>44293</v>
+        <v>45917</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1">
@@ -1339,37 +1384,35 @@
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.14560000000000001</v>
+        <v>163</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <v>0.1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="E7" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3">
-        <v>13488</v>
+        <v>2383</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
       <c r="H7" s="5">
-        <v>44328</v>
+        <v>45721</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1379,31 +1422,31 @@
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.153</v>
+        <v>0.2303</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="E9" s="3">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
-        <v>6746</v>
+        <v>4593</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="5">
-        <v>44277</v>
+        <v>45721</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1">
@@ -1419,28 +1462,28 @@
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" s="6">
-        <v>0.38700000000000001</v>
+        <v>0.25230000000000002</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3">
-        <v>5268</v>
+        <v>3285</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="5">
-        <v>44312</v>
+        <v>45721</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1459,28 +1502,28 @@
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6">
-        <v>0.153</v>
+        <v>0.2382</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="E13" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3">
-        <v>8263</v>
+        <v>12697</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5">
-        <v>44277</v>
+        <v>45721</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -1499,26 +1542,18 @@
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2383</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5">
-        <v>43999</v>
+        <v>45721</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1526,8 +1561,8 @@
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1537,28 +1572,28 @@
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="6">
-        <v>0.2054</v>
+        <v>0.13270000000000001</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E17" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="3">
-        <v>5830</v>
+        <v>7759</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H17" s="5">
-        <v>44146</v>
+        <v>45441</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -1577,31 +1612,31 @@
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>7.7299999999999994E-2</v>
+        <v>0.2054</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E19" s="3">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3">
-        <v>4997</v>
+        <v>5830</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
       </c>
       <c r="H19" s="5">
-        <v>44165</v>
+        <v>45441</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
@@ -1617,28 +1652,26 @@
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B21" s="7"/>
       <c r="C21" s="6">
-        <v>0.13819999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>4140</v>
+        <v>675</v>
       </c>
       <c r="G21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="5">
-        <v>44125</v>
+        <v>45441</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1646,7 +1679,7 @@
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
@@ -1657,31 +1690,31 @@
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="6">
-        <v>0.3367</v>
+        <v>0.43559999999999999</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E23" s="3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F23" s="3">
-        <v>4658</v>
+        <v>1735</v>
       </c>
       <c r="G23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" s="5">
-        <v>44202</v>
+        <v>45441</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1">
@@ -1697,31 +1730,21 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.24179999999999999</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="3">
-        <v>19</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5531</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5">
-        <v>44214</v>
+        <v>45441</v>
       </c>
       <c r="I25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1">
@@ -1737,28 +1760,18 @@
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.253</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="3">
-        <v>18</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6938</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5">
-        <v>44202</v>
+        <v>45441</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1777,34 +1790,34 @@
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="6">
-        <v>0.1888</v>
+        <v>0.1724</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E29" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>6426</v>
+        <v>4154</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H29" s="5">
-        <v>44293</v>
+        <v>45371</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1">
+    <row r="30" spans="1:9" ht="16.5" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
@@ -1817,31 +1830,31 @@
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6">
-        <v>0.21390000000000001</v>
+        <v>0.3367</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E31" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F31" s="3">
-        <v>4280</v>
+        <v>4658</v>
       </c>
       <c r="G31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" s="5">
-        <v>44328</v>
+        <v>45371</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1">
@@ -1857,28 +1870,28 @@
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" s="6">
-        <v>0.33189999999999997</v>
+        <v>0.161</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E33" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F33" s="3">
-        <v>13250</v>
+        <v>4017</v>
       </c>
       <c r="G33" s="3">
         <v>4</v>
       </c>
       <c r="H33" s="5">
-        <v>44085</v>
+        <v>45371</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -1897,28 +1910,28 @@
     </row>
     <row r="35" spans="1:9" ht="21" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3">
         <v>2</v>
       </c>
       <c r="C35" s="6">
-        <v>0.25130000000000002</v>
+        <v>0.25519999999999998</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="E35" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>4427</v>
+        <v>8262</v>
       </c>
       <c r="G35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="5">
-        <v>44078</v>
+        <v>45371</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -1937,28 +1950,28 @@
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
       </c>
       <c r="C37" s="6">
-        <v>0.1724</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E37" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3">
-        <v>4154</v>
+        <v>5001</v>
       </c>
       <c r="G37" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37" s="5">
-        <v>44312</v>
+        <v>45371</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -1977,28 +1990,18 @@
     </row>
     <row r="39" spans="1:9" ht="21" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0.2303</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="3">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3">
-        <v>4593</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39" s="5">
-        <v>44312</v>
+        <v>45371</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -2017,28 +2020,28 @@
     </row>
     <row r="41" spans="1:9" ht="21" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="B41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="6">
-        <v>0.14810000000000001</v>
+        <v>0.1948</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="E41" s="3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F41" s="3">
-        <v>6809</v>
+        <v>4393</v>
       </c>
       <c r="G41" s="3">
         <v>4</v>
       </c>
       <c r="H41" s="5">
-        <v>44277</v>
+        <v>45364</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2057,28 +2060,28 @@
     </row>
     <row r="43" spans="1:9" ht="21" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="6">
-        <v>0.1673</v>
+        <v>0.28160000000000002</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="E43" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" s="3">
-        <v>4034</v>
+        <v>2922</v>
       </c>
       <c r="G43" s="3">
         <v>4</v>
       </c>
       <c r="H43" s="5">
-        <v>44328</v>
+        <v>45364</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2097,28 +2100,26 @@
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B45" s="7"/>
       <c r="C45" s="6">
-        <v>0.2417</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="E45" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>1488</v>
+        <v>2454</v>
       </c>
       <c r="G45" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="5">
-        <v>44085</v>
+        <v>45364</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2126,7 +2127,7 @@
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="6"/>
       <c r="D46" s="4"/>
       <c r="E46" s="3"/>
@@ -2137,28 +2138,18 @@
     </row>
     <row r="47" spans="1:9" ht="21" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3">
-        <v>3</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0.28660000000000002</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="3">
-        <v>32</v>
-      </c>
-      <c r="F47" s="3">
-        <v>9880</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" s="5">
-        <v>44181</v>
+        <v>45364</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2195,10 +2186,10 @@
         <v>3775</v>
       </c>
       <c r="G49" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="5">
-        <v>44312</v>
+        <v>45357</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2217,28 +2208,28 @@
     </row>
     <row r="51" spans="1:9" ht="21" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="B51" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="6">
-        <v>0.32529999999999998</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="E51" s="3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F51" s="3">
-        <v>6414</v>
+        <v>6968</v>
       </c>
       <c r="G51" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" s="5">
-        <v>44293</v>
+        <v>45357</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -2257,28 +2248,28 @@
     </row>
     <row r="53" spans="1:9" ht="21" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="B53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="6">
-        <v>0.1948</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="E53" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F53" s="3">
-        <v>4393</v>
+        <v>1891</v>
       </c>
       <c r="G53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="5">
-        <v>44265</v>
+        <v>45357</v>
       </c>
       <c r="I53" s="3">
         <v>0</v>
@@ -2297,28 +2288,28 @@
     </row>
     <row r="55" spans="1:9" ht="21" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="C55" s="6">
-        <v>0.2291</v>
+        <v>0.13819999999999999</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="E55" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F55" s="3">
-        <v>3347</v>
+        <v>4140</v>
       </c>
       <c r="G55" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" s="5">
-        <v>44293</v>
+        <v>45217</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
@@ -2337,31 +2328,31 @@
     </row>
     <row r="57" spans="1:9" ht="21" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="B57" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="6">
-        <v>0.19550000000000001</v>
+        <v>0.28029999999999999</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="E57" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F57" s="3">
-        <v>7019</v>
+        <v>5908</v>
       </c>
       <c r="G57" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" s="5">
-        <v>44125</v>
+        <v>45217</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1">
@@ -2377,31 +2368,31 @@
     </row>
     <row r="59" spans="1:9" ht="21" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="B59" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="6">
-        <v>0.28029999999999999</v>
+        <v>0.31009999999999999</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="E59" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F59" s="3">
-        <v>5908</v>
+        <v>2267</v>
       </c>
       <c r="G59" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="5">
-        <v>43999</v>
+        <v>45217</v>
       </c>
       <c r="I59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1">
@@ -2417,28 +2408,28 @@
     </row>
     <row r="61" spans="1:9" ht="21" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B61" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="6">
-        <v>0.21290000000000001</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E61" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F61" s="3">
-        <v>6968</v>
+        <v>5923</v>
       </c>
       <c r="G61" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61" s="5">
-        <v>44312</v>
+        <v>45217</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2457,28 +2448,28 @@
     </row>
     <row r="63" spans="1:9" ht="21" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B63" s="3">
         <v>2</v>
       </c>
       <c r="C63" s="6">
-        <v>0.22570000000000001</v>
+        <v>0.3604</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E63" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F63" s="3">
-        <v>4950</v>
+        <v>2175</v>
       </c>
       <c r="G63" s="3">
         <v>3</v>
       </c>
       <c r="H63" s="5">
-        <v>44328</v>
+        <v>45217</v>
       </c>
       <c r="I63" s="3">
         <v>0</v>
@@ -2497,28 +2488,18 @@
     </row>
     <row r="65" spans="1:9" ht="21" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6">
-        <v>0.161</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E65" s="3">
-        <v>11</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4017</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
       <c r="G65" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" s="5">
-        <v>44202</v>
+        <v>45217</v>
       </c>
       <c r="I65" s="3">
         <v>0</v>
@@ -2537,28 +2518,28 @@
     </row>
     <row r="67" spans="1:9" ht="21" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B67" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="6">
-        <v>0.38129999999999997</v>
+        <v>0.253</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E67" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F67" s="3">
-        <v>2608</v>
+        <v>6938</v>
       </c>
       <c r="G67" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H67" s="5">
-        <v>44181</v>
+        <v>45203</v>
       </c>
       <c r="I67" s="3">
         <v>0</v>
@@ -2577,28 +2558,28 @@
     </row>
     <row r="69" spans="1:9" ht="21" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="B69" s="3">
         <v>2</v>
       </c>
       <c r="C69" s="6">
-        <v>0.28160000000000002</v>
+        <v>0.21640000000000001</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="E69" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F69" s="3">
-        <v>2922</v>
+        <v>8807</v>
       </c>
       <c r="G69" s="3">
         <v>3</v>
       </c>
       <c r="H69" s="5">
-        <v>43995</v>
+        <v>45203</v>
       </c>
       <c r="I69" s="3">
         <v>0</v>
@@ -2617,28 +2598,26 @@
     </row>
     <row r="71" spans="1:9" ht="21" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B71" s="7"/>
       <c r="C71" s="6">
-        <v>0.1082</v>
+        <v>0.1739</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E71" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F71" s="3">
-        <v>4981</v>
+        <v>953</v>
       </c>
       <c r="G71" s="3">
         <v>3</v>
       </c>
       <c r="H71" s="5">
-        <v>44165</v>
+        <v>45203</v>
       </c>
       <c r="I71" s="3">
         <v>0</v>
@@ -2646,7 +2625,7 @@
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="6"/>
       <c r="D72" s="4"/>
       <c r="E72" s="3"/>
@@ -2657,28 +2636,18 @@
     </row>
     <row r="73" spans="1:9" ht="21" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" s="3">
-        <v>2</v>
-      </c>
-      <c r="C73" s="6">
-        <v>0.31009999999999999</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="3">
-        <v>7</v>
-      </c>
-      <c r="F73" s="3">
-        <v>2267</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
       <c r="G73" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" s="5">
-        <v>44293</v>
+        <v>45203</v>
       </c>
       <c r="I73" s="3">
         <v>0</v>
@@ -2697,28 +2666,18 @@
     </row>
     <row r="75" spans="1:9" ht="21" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="3">
-        <v>1</v>
-      </c>
-      <c r="C75" s="6">
-        <v>6.2E-2</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E75" s="3">
-        <v>7</v>
-      </c>
-      <c r="F75" s="3">
-        <v>5923</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
       <c r="G75" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" s="5">
-        <v>44032</v>
+        <v>45203</v>
       </c>
       <c r="I75" s="3">
         <v>0</v>
@@ -2737,31 +2696,31 @@
     </row>
     <row r="77" spans="1:9" ht="21" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="B77" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="6">
-        <v>0.38290000000000002</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="E77" s="3">
+        <v>18</v>
+      </c>
+      <c r="F77" s="3">
+        <v>13488</v>
+      </c>
+      <c r="G77" s="3">
         <v>6</v>
       </c>
-      <c r="F77" s="3">
-        <v>2898</v>
-      </c>
-      <c r="G77" s="3">
-        <v>3</v>
-      </c>
       <c r="H77" s="5">
-        <v>44265</v>
+        <v>44328</v>
       </c>
       <c r="I77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" customHeight="1">
@@ -2777,28 +2736,28 @@
     </row>
     <row r="79" spans="1:9" ht="21" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="B79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="6">
-        <v>0.24729999999999999</v>
+        <v>0.21390000000000001</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="E79" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F79" s="3">
-        <v>2260</v>
+        <v>4280</v>
       </c>
       <c r="G79" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" s="5">
-        <v>44265</v>
+        <v>44328</v>
       </c>
       <c r="I79" s="3">
         <v>0</v>
@@ -2817,26 +2776,28 @@
     </row>
     <row r="81" spans="1:9" ht="21" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
       <c r="C81" s="6">
-        <v>7.1599999999999997E-2</v>
+        <v>0.1673</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E81" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F81" s="3">
-        <v>1836</v>
+        <v>4034</v>
       </c>
       <c r="G81" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" s="5">
-        <v>44202</v>
+        <v>44328</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -2844,7 +2805,7 @@
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="7"/>
+      <c r="B82" s="3"/>
       <c r="C82" s="6"/>
       <c r="D82" s="4"/>
       <c r="E82" s="3"/>
@@ -2855,28 +2816,28 @@
     </row>
     <row r="83" spans="1:9" ht="21" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B83" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="6">
-        <v>0.28029999999999999</v>
+        <v>0.22570000000000001</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E83" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F83" s="3">
-        <v>2502</v>
+        <v>4950</v>
       </c>
       <c r="G83" s="3">
         <v>3</v>
       </c>
       <c r="H83" s="5">
-        <v>44214</v>
+        <v>44328</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -2895,28 +2856,28 @@
     </row>
     <row r="85" spans="1:9" ht="21" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B85" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" s="6">
-        <v>8.7599999999999997E-2</v>
+        <v>0.30680000000000002</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E85" s="3">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F85" s="3">
-        <v>3341</v>
+        <v>2777</v>
       </c>
       <c r="G85" s="3">
         <v>2</v>
       </c>
       <c r="H85" s="5">
-        <v>44085</v>
+        <v>44328</v>
       </c>
       <c r="I85" s="3">
         <v>0</v>
@@ -2935,28 +2896,28 @@
     </row>
     <row r="87" spans="1:9" ht="21" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="B87" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" s="6">
-        <v>0.1089</v>
+        <v>0.311</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="E87" s="3">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F87" s="3">
-        <v>5274</v>
+        <v>5026</v>
       </c>
       <c r="G87" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" s="5">
-        <v>44146</v>
+        <v>44328</v>
       </c>
       <c r="I87" s="3">
         <v>0</v>
@@ -2975,31 +2936,31 @@
     </row>
     <row r="89" spans="1:9" ht="21" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
       </c>
       <c r="C89" s="6">
-        <v>0.16739999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="E89" s="3">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F89" s="3">
-        <v>3667</v>
+        <v>5268</v>
       </c>
       <c r="G89" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89" s="5">
-        <v>44025</v>
+        <v>44312</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" customHeight="1">
@@ -3013,33 +2974,33 @@
       <c r="H90" s="5"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="21" customHeight="1">
+    <row r="91" spans="1:9" ht="24" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B91" s="3">
         <v>3</v>
       </c>
       <c r="C91" s="6">
-        <v>0.2084</v>
+        <v>0.22339999999999999</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E91" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F91" s="3">
-        <v>3210</v>
+        <v>9512</v>
       </c>
       <c r="G91" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H91" s="5">
-        <v>43995</v>
+        <v>44293</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1">
@@ -3053,33 +3014,33 @@
       <c r="H92" s="5"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="24" customHeight="1">
+    <row r="93" spans="1:9" ht="21" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B93" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" s="6">
-        <v>0.25230000000000002</v>
+        <v>0.1888</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E93" s="3">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F93" s="3">
-        <v>3285</v>
+        <v>6426</v>
       </c>
       <c r="G93" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H93" s="5">
-        <v>43985</v>
+        <v>44293</v>
       </c>
       <c r="I93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1">
@@ -3095,28 +3056,28 @@
     </row>
     <row r="95" spans="1:9" ht="21" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B95" s="3">
         <v>3</v>
       </c>
       <c r="C95" s="6">
-        <v>0.1996</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="E95" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F95" s="3">
-        <v>2440</v>
+        <v>6414</v>
       </c>
       <c r="G95" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95" s="5">
-        <v>43936</v>
+        <v>44293</v>
       </c>
       <c r="I95" s="3">
         <v>0</v>
@@ -3133,30 +3094,30 @@
       <c r="H96" s="5"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" ht="21" customHeight="1">
+    <row r="97" spans="1:9" ht="24" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
       </c>
       <c r="C97" s="6">
-        <v>0.19570000000000001</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="E97" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F97" s="3">
-        <v>2765</v>
+        <v>1410</v>
       </c>
       <c r="G97" s="3">
         <v>2</v>
       </c>
       <c r="H97" s="5">
-        <v>43995</v>
+        <v>44293</v>
       </c>
       <c r="I97" s="3">
         <v>0</v>
@@ -3173,33 +3134,33 @@
       <c r="H98" s="5"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" ht="24" customHeight="1">
+    <row r="99" spans="1:9" ht="21" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="B99" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" s="6">
-        <v>0.3014</v>
+        <v>0.153</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="E99" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F99" s="3">
-        <v>7750</v>
+        <v>6746</v>
       </c>
       <c r="G99" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H99" s="5">
-        <v>43584</v>
+        <v>44277</v>
       </c>
       <c r="I99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" customHeight="1">
@@ -3215,28 +3176,28 @@
     </row>
     <row r="101" spans="1:9" ht="21" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B101" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" s="6">
-        <v>0.1885</v>
+        <v>0.153</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E101" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F101" s="3">
-        <v>15437</v>
+        <v>8263</v>
       </c>
       <c r="G101" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101" s="5">
-        <v>44025</v>
+        <v>44277</v>
       </c>
       <c r="I101" s="3">
         <v>1</v>
@@ -3255,28 +3216,28 @@
     </row>
     <row r="103" spans="1:9" ht="21" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="B103" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="6">
-        <v>0.2087</v>
+        <v>0.14810000000000001</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="E103" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F103" s="3">
-        <v>5248</v>
+        <v>6809</v>
       </c>
       <c r="G103" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H103" s="5">
-        <v>44125</v>
+        <v>44277</v>
       </c>
       <c r="I103" s="3">
         <v>0</v>
@@ -3295,31 +3256,31 @@
     </row>
     <row r="105" spans="1:9" ht="21" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B105" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" s="6">
-        <v>0.56879999999999997</v>
+        <v>0.2281</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E105" s="3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F105" s="3">
-        <v>3501</v>
+        <v>4799</v>
       </c>
       <c r="G105" s="3">
         <v>2</v>
       </c>
       <c r="H105" s="5">
-        <v>43817</v>
+        <v>44277</v>
       </c>
       <c r="I105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1">
@@ -3335,28 +3296,28 @@
     </row>
     <row r="107" spans="1:9" ht="21" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B107" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="6">
-        <v>0.3039</v>
+        <v>0.18260000000000001</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="E107" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F107" s="3">
-        <v>8187</v>
+        <v>2865</v>
       </c>
       <c r="G107" s="3">
         <v>2</v>
       </c>
       <c r="H107" s="5">
-        <v>43995</v>
+        <v>44277</v>
       </c>
       <c r="I107" s="3">
         <v>0</v>
@@ -3375,28 +3336,28 @@
     </row>
     <row r="109" spans="1:9" ht="21" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
       </c>
       <c r="C109" s="6">
-        <v>0.21640000000000001</v>
+        <v>0.38290000000000002</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="E109" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F109" s="3">
-        <v>8807</v>
+        <v>2898</v>
       </c>
       <c r="G109" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H109" s="5">
-        <v>44085</v>
+        <v>44265</v>
       </c>
       <c r="I109" s="3">
         <v>0</v>
@@ -3415,28 +3376,28 @@
     </row>
     <row r="111" spans="1:9" ht="21" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
       </c>
       <c r="C111" s="6">
-        <v>0.1885</v>
+        <v>0.24729999999999999</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="E111" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F111" s="3">
-        <v>1999</v>
+        <v>2260</v>
       </c>
       <c r="G111" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" s="5">
-        <v>44013</v>
+        <v>44265</v>
       </c>
       <c r="I111" s="3">
         <v>0</v>
@@ -3455,31 +3416,31 @@
     </row>
     <row r="113" spans="1:9" ht="21" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="B113" s="3">
+        <v>1</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E113" s="3">
         <v>3</v>
       </c>
-      <c r="C113" s="6">
-        <v>0.378</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E113" s="3">
-        <v>12</v>
-      </c>
       <c r="F113" s="3">
-        <v>6780</v>
+        <v>1722</v>
       </c>
       <c r="G113" s="3">
         <v>2</v>
       </c>
       <c r="H113" s="5">
-        <v>44078</v>
+        <v>44265</v>
       </c>
       <c r="I113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" customHeight="1">
@@ -3495,28 +3456,26 @@
     </row>
     <row r="115" spans="1:9" ht="21" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" s="3">
-        <v>2</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B115" s="7"/>
       <c r="C115" s="6">
-        <v>0.25109999999999999</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="E115" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F115" s="3">
-        <v>2555</v>
+        <v>746</v>
       </c>
       <c r="G115" s="3">
         <v>2</v>
       </c>
       <c r="H115" s="5">
-        <v>43971</v>
+        <v>44265</v>
       </c>
       <c r="I115" s="3">
         <v>0</v>
@@ -3524,7 +3483,7 @@
     </row>
     <row r="116" spans="1:9" ht="16.5" customHeight="1">
       <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="7"/>
       <c r="C116" s="6"/>
       <c r="D116" s="4"/>
       <c r="E116" s="3"/>
@@ -3535,28 +3494,28 @@
     </row>
     <row r="117" spans="1:9" ht="21" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B117" s="3">
         <v>3</v>
       </c>
       <c r="C117" s="6">
-        <v>0.58720000000000006</v>
+        <v>0.24179999999999999</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E117" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F117" s="3">
-        <v>4164</v>
+        <v>5531</v>
       </c>
       <c r="G117" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H117" s="5">
-        <v>44165</v>
+        <v>44214</v>
       </c>
       <c r="I117" s="3">
         <v>1</v>
@@ -3575,28 +3534,28 @@
     </row>
     <row r="119" spans="1:9" ht="21" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B119" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" s="6">
-        <v>0.25009999999999999</v>
+        <v>0.28029999999999999</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E119" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F119" s="3">
-        <v>6359</v>
+        <v>2502</v>
       </c>
       <c r="G119" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119" s="5">
-        <v>43754</v>
+        <v>44214</v>
       </c>
       <c r="I119" s="3">
         <v>0</v>
@@ -3615,28 +3574,28 @@
     </row>
     <row r="121" spans="1:9" ht="21" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B121" s="3">
         <v>2</v>
       </c>
       <c r="C121" s="6">
-        <v>0.2281</v>
+        <v>0.37569999999999998</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E121" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F121" s="3">
-        <v>4799</v>
+        <v>3395</v>
       </c>
       <c r="G121" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121" s="5">
-        <v>44277</v>
+        <v>44214</v>
       </c>
       <c r="I121" s="3">
         <v>0</v>
@@ -3655,28 +3614,26 @@
     </row>
     <row r="123" spans="1:9" ht="21" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B123" s="3">
-        <v>2</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B123" s="7"/>
       <c r="C123" s="6">
-        <v>0.318</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E123" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F123" s="3">
-        <v>3184</v>
+        <v>1836</v>
       </c>
       <c r="G123" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" s="5">
-        <v>43985</v>
+        <v>44202</v>
       </c>
       <c r="I123" s="3">
         <v>0</v>
@@ -3684,7 +3641,7 @@
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="B124" s="7"/>
       <c r="C124" s="6"/>
       <c r="D124" s="4"/>
       <c r="E124" s="3"/>
@@ -3695,28 +3652,28 @@
     </row>
     <row r="125" spans="1:9" ht="21" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B125" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125" s="6">
-        <v>0.3604</v>
+        <v>0.28660000000000002</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E125" s="3">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F125" s="3">
-        <v>2175</v>
+        <v>9880</v>
       </c>
       <c r="G125" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H125" s="5">
-        <v>43985</v>
+        <v>44181</v>
       </c>
       <c r="I125" s="3">
         <v>0</v>
@@ -3735,28 +3692,28 @@
     </row>
     <row r="127" spans="1:9" ht="21" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B127" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" s="6">
-        <v>0.18260000000000001</v>
+        <v>0.38129999999999997</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E127" s="3">
         <v>9</v>
       </c>
       <c r="F127" s="3">
-        <v>2865</v>
+        <v>2608</v>
       </c>
       <c r="G127" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127" s="5">
-        <v>44277</v>
+        <v>44181</v>
       </c>
       <c r="I127" s="3">
         <v>0</v>
@@ -3775,28 +3732,26 @@
     </row>
     <row r="129" spans="1:9" ht="21" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B129" s="3">
-        <v>3</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B129" s="7"/>
       <c r="C129" s="6">
-        <v>0.49759999999999999</v>
+        <v>0.1656</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E129" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F129" s="3">
-        <v>2125</v>
+        <v>2641</v>
       </c>
       <c r="G129" s="3">
         <v>2</v>
       </c>
       <c r="H129" s="5">
-        <v>44025</v>
+        <v>44181</v>
       </c>
       <c r="I129" s="3">
         <v>0</v>
@@ -3804,7 +3759,7 @@
     </row>
     <row r="130" spans="1:9" ht="16.5" customHeight="1">
       <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="B130" s="7"/>
       <c r="C130" s="6"/>
       <c r="D130" s="4"/>
       <c r="E130" s="3"/>
@@ -3815,26 +3770,28 @@
     </row>
     <row r="131" spans="1:9" ht="21" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B131" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B131" s="3">
+        <v>2</v>
+      </c>
       <c r="C131" s="6">
-        <v>1.4E-2</v>
+        <v>0.25669999999999998</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="E131" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F131" s="3">
-        <v>2454</v>
+        <v>2806</v>
       </c>
       <c r="G131" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" s="5">
-        <v>44146</v>
+        <v>44181</v>
       </c>
       <c r="I131" s="3">
         <v>0</v>
@@ -3842,7 +3799,7 @@
     </row>
     <row r="132" spans="1:9" ht="16.5" customHeight="1">
       <c r="A132" s="3"/>
-      <c r="B132" s="7"/>
+      <c r="B132" s="3"/>
       <c r="C132" s="6"/>
       <c r="D132" s="4"/>
       <c r="E132" s="3"/>
@@ -3853,28 +3810,28 @@
     </row>
     <row r="133" spans="1:9" ht="21" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="B133" s="3">
         <v>2</v>
       </c>
       <c r="C133" s="6">
-        <v>0.28339999999999999</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="E133" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F133" s="3">
-        <v>5020</v>
+        <v>4997</v>
       </c>
       <c r="G133" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H133" s="5">
-        <v>44125</v>
+        <v>44165</v>
       </c>
       <c r="I133" s="3">
         <v>0</v>
@@ -3893,28 +3850,28 @@
     </row>
     <row r="135" spans="1:9" ht="21" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="B135" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="6">
-        <v>0.30680000000000002</v>
+        <v>0.1082</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E135" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F135" s="3">
-        <v>2777</v>
+        <v>4981</v>
       </c>
       <c r="G135" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H135" s="5">
-        <v>44328</v>
+        <v>44165</v>
       </c>
       <c r="I135" s="3">
         <v>0</v>
@@ -3933,31 +3890,31 @@
     </row>
     <row r="137" spans="1:9" ht="21" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="B137" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137" s="6">
-        <v>0.26679999999999998</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="E137" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F137" s="3">
-        <v>2451</v>
+        <v>4164</v>
       </c>
       <c r="G137" s="3">
         <v>2</v>
       </c>
       <c r="H137" s="5">
-        <v>43985</v>
+        <v>44165</v>
       </c>
       <c r="I137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" customHeight="1">
@@ -3973,28 +3930,26 @@
     </row>
     <row r="139" spans="1:9" ht="21" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B139" s="3">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B139" s="7"/>
       <c r="C139" s="6">
-        <v>0.25519999999999998</v>
+        <v>0.1731</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="E139" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F139" s="3">
-        <v>8262</v>
+        <v>668</v>
       </c>
       <c r="G139" s="3">
         <v>2</v>
       </c>
       <c r="H139" s="5">
-        <v>43971</v>
+        <v>44165</v>
       </c>
       <c r="I139" s="3">
         <v>0</v>
@@ -4002,7 +3957,7 @@
     </row>
     <row r="140" spans="1:9" ht="16.5" customHeight="1">
       <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="B140" s="7"/>
       <c r="C140" s="6"/>
       <c r="D140" s="4"/>
       <c r="E140" s="3"/>
@@ -4013,28 +3968,28 @@
     </row>
     <row r="141" spans="1:9" ht="21" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B141" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" s="6">
-        <v>0.44440000000000002</v>
+        <v>0.1089</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E141" s="3">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F141" s="3">
-        <v>1410</v>
+        <v>5274</v>
       </c>
       <c r="G141" s="3">
         <v>2</v>
       </c>
       <c r="H141" s="5">
-        <v>44293</v>
+        <v>44146</v>
       </c>
       <c r="I141" s="3">
         <v>0</v>
@@ -4053,26 +4008,28 @@
     </row>
     <row r="143" spans="1:9" ht="21" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B143" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2</v>
+      </c>
       <c r="C143" s="6">
-        <v>0.11840000000000001</v>
+        <v>0.1258</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="E143" s="3">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F143" s="3">
-        <v>644</v>
+        <v>5190</v>
       </c>
       <c r="G143" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" s="5">
-        <v>43971</v>
+        <v>44146</v>
       </c>
       <c r="I143" s="3">
         <v>0</v>
@@ -4080,7 +4037,7 @@
     </row>
     <row r="144" spans="1:9" ht="16.5" customHeight="1">
       <c r="A144" s="3"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="6"/>
       <c r="D144" s="4"/>
       <c r="E144" s="3"/>
@@ -4091,28 +4048,28 @@
     </row>
     <row r="145" spans="1:9" ht="21" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B145" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" s="6">
-        <v>0.26479999999999998</v>
+        <v>0.19550000000000001</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E145" s="3">
+        <v>19</v>
+      </c>
+      <c r="F145" s="3">
+        <v>7019</v>
+      </c>
+      <c r="G145" s="3">
         <v>3</v>
       </c>
-      <c r="F145" s="3">
-        <v>1722</v>
-      </c>
-      <c r="G145" s="3">
-        <v>2</v>
-      </c>
       <c r="H145" s="5">
-        <v>44265</v>
+        <v>44125</v>
       </c>
       <c r="I145" s="3">
         <v>0</v>
@@ -4131,26 +4088,28 @@
     </row>
     <row r="147" spans="1:9" ht="21" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B147" s="7"/>
+        <v>198</v>
+      </c>
+      <c r="B147" s="3">
+        <v>2</v>
+      </c>
       <c r="C147" s="6">
-        <v>8.3000000000000004E-2</v>
+        <v>0.2087</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="E147" s="3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F147" s="3">
-        <v>1672</v>
+        <v>5248</v>
       </c>
       <c r="G147" s="3">
         <v>2</v>
       </c>
       <c r="H147" s="5">
-        <v>43829</v>
+        <v>44125</v>
       </c>
       <c r="I147" s="3">
         <v>0</v>
@@ -4158,7 +4117,7 @@
     </row>
     <row r="148" spans="1:9" ht="16.5" customHeight="1">
       <c r="A148" s="3"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="3"/>
       <c r="C148" s="6"/>
       <c r="D148" s="4"/>
       <c r="E148" s="3"/>
@@ -4169,26 +4128,28 @@
     </row>
     <row r="149" spans="1:9" ht="21" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B149" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B149" s="3">
+        <v>2</v>
+      </c>
       <c r="C149" s="6">
-        <v>0.1739</v>
+        <v>0.28339999999999999</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E149" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F149" s="3">
-        <v>953</v>
+        <v>5020</v>
       </c>
       <c r="G149" s="3">
         <v>2</v>
       </c>
       <c r="H149" s="5">
-        <v>44146</v>
+        <v>44125</v>
       </c>
       <c r="I149" s="3">
         <v>0</v>
@@ -4196,7 +4157,7 @@
     </row>
     <row r="150" spans="1:9" ht="16.5" customHeight="1">
       <c r="A150" s="3"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="3"/>
       <c r="C150" s="6"/>
       <c r="D150" s="4"/>
       <c r="E150" s="3"/>
@@ -4207,26 +4168,28 @@
     </row>
     <row r="151" spans="1:9" ht="21" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B151" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="B151" s="3">
+        <v>2</v>
+      </c>
       <c r="C151" s="6">
-        <v>0.16669999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="E151" s="3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F151" s="3">
-        <v>675</v>
+        <v>4334</v>
       </c>
       <c r="G151" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" s="5">
-        <v>44277</v>
+        <v>44111</v>
       </c>
       <c r="I151" s="3">
         <v>0</v>
@@ -4234,7 +4197,7 @@
     </row>
     <row r="152" spans="1:9" ht="16.5" customHeight="1">
       <c r="A152" s="3"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="3"/>
       <c r="C152" s="6"/>
       <c r="D152" s="4"/>
       <c r="E152" s="3"/>
@@ -4245,26 +4208,28 @@
     </row>
     <row r="153" spans="1:9" ht="21" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B153" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="B153" s="3">
+        <v>3</v>
+      </c>
       <c r="C153" s="6">
-        <v>0.1731</v>
+        <v>0.33189999999999997</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E153" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F153" s="3">
-        <v>668</v>
+        <v>13250</v>
       </c>
       <c r="G153" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H153" s="5">
-        <v>44165</v>
+        <v>44085</v>
       </c>
       <c r="I153" s="3">
         <v>0</v>
@@ -4272,7 +4237,7 @@
     </row>
     <row r="154" spans="1:9" ht="16.5" customHeight="1">
       <c r="A154" s="3"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="3"/>
       <c r="C154" s="6"/>
       <c r="D154" s="4"/>
       <c r="E154" s="3"/>
@@ -4283,26 +4248,28 @@
     </row>
     <row r="155" spans="1:9" ht="21" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B155" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1</v>
+      </c>
       <c r="C155" s="6">
-        <v>4.8099999999999997E-2</v>
+        <v>0.2417</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="E155" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F155" s="3">
-        <v>746</v>
+        <v>1488</v>
       </c>
       <c r="G155" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H155" s="5">
-        <v>44265</v>
+        <v>44085</v>
       </c>
       <c r="I155" s="3">
         <v>0</v>
@@ -4310,7 +4277,7 @@
     </row>
     <row r="156" spans="1:9" ht="16.5" customHeight="1">
       <c r="A156" s="3"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="3"/>
       <c r="C156" s="6"/>
       <c r="D156" s="4"/>
       <c r="E156" s="3"/>
@@ -4321,26 +4288,28 @@
     </row>
     <row r="157" spans="1:9" ht="21" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B157" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="B157" s="3">
+        <v>3</v>
+      </c>
       <c r="C157" s="6">
-        <v>0.1656</v>
+        <v>8.7599999999999997E-2</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="E157" s="3">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F157" s="3">
-        <v>2641</v>
+        <v>3341</v>
       </c>
       <c r="G157" s="3">
         <v>2</v>
       </c>
       <c r="H157" s="5">
-        <v>44181</v>
+        <v>44085</v>
       </c>
       <c r="I157" s="3">
         <v>0</v>
@@ -4348,7 +4317,7 @@
     </row>
     <row r="158" spans="1:9" ht="16.5" customHeight="1">
       <c r="A158" s="3"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="3"/>
       <c r="C158" s="6"/>
       <c r="D158" s="4"/>
       <c r="E158" s="3"/>
@@ -4359,31 +4328,31 @@
     </row>
     <row r="159" spans="1:9" ht="21" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="B159" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" s="6">
-        <v>0.1258</v>
+        <v>0.378</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="E159" s="3">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F159" s="3">
-        <v>5190</v>
+        <v>6780</v>
       </c>
       <c r="G159" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" s="5">
-        <v>44146</v>
+        <v>44078</v>
       </c>
       <c r="I159" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" customHeight="1">
@@ -4399,28 +4368,28 @@
     </row>
     <row r="161" spans="1:9" ht="21" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="B161" s="3">
         <v>2</v>
       </c>
       <c r="C161" s="6">
-        <v>0.19539999999999999</v>
+        <v>0.1648</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="E161" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F161" s="3">
-        <v>2994</v>
+        <v>8554</v>
       </c>
       <c r="G161" s="3">
         <v>1</v>
       </c>
       <c r="H161" s="5">
-        <v>43661</v>
+        <v>44032</v>
       </c>
       <c r="I161" s="3">
         <v>0</v>
@@ -4439,28 +4408,28 @@
     </row>
     <row r="163" spans="1:9" ht="21" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B163" s="3">
         <v>3</v>
       </c>
       <c r="C163" s="6">
-        <v>0.15390000000000001</v>
+        <v>0.16739999999999999</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E163" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F163" s="3">
-        <v>10939</v>
+        <v>3667</v>
       </c>
       <c r="G163" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" s="5">
-        <v>43957</v>
+        <v>44025</v>
       </c>
       <c r="I163" s="3">
         <v>0</v>
@@ -4479,31 +4448,31 @@
     </row>
     <row r="165" spans="1:9" ht="21" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="B165" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C165" s="6">
-        <v>0.14399999999999999</v>
+        <v>0.1885</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="E165" s="3">
         <v>18</v>
       </c>
       <c r="F165" s="3">
-        <v>4334</v>
+        <v>15437</v>
       </c>
       <c r="G165" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" s="5">
-        <v>44111</v>
+        <v>44025</v>
       </c>
       <c r="I165" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1">
@@ -4519,28 +4488,28 @@
     </row>
     <row r="167" spans="1:9" ht="21" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="B167" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C167" s="6">
-        <v>0.1807</v>
+        <v>0.49759999999999999</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="E167" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F167" s="3">
-        <v>4286</v>
+        <v>2125</v>
       </c>
       <c r="G167" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" s="5">
-        <v>43614</v>
+        <v>44025</v>
       </c>
       <c r="I167" s="3">
         <v>0</v>
@@ -4559,31 +4528,31 @@
     </row>
     <row r="169" spans="1:9" ht="21" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B169" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C169" s="6">
-        <v>0.2382</v>
+        <v>0.1885</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E169" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F169" s="3">
-        <v>12697</v>
+        <v>1999</v>
       </c>
       <c r="G169" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" s="5">
-        <v>43714</v>
+        <v>44013</v>
       </c>
       <c r="I169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1">
@@ -4599,28 +4568,28 @@
     </row>
     <row r="171" spans="1:9" ht="21" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B171" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" s="6">
-        <v>0.13600000000000001</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E171" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F171" s="3">
-        <v>1891</v>
+        <v>9119</v>
       </c>
       <c r="G171" s="3">
         <v>1</v>
       </c>
       <c r="H171" s="5">
-        <v>44312</v>
+        <v>43999</v>
       </c>
       <c r="I171" s="3">
         <v>0</v>
@@ -4639,28 +4608,28 @@
     </row>
     <row r="173" spans="1:9" ht="21" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B173" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173" s="6">
-        <v>0.2107</v>
+        <v>0.2084</v>
       </c>
       <c r="D173" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173" s="3">
         <v>33</v>
       </c>
-      <c r="E173" s="3">
-        <v>13</v>
-      </c>
       <c r="F173" s="3">
-        <v>3358</v>
+        <v>3210</v>
       </c>
       <c r="G173" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173" s="5">
-        <v>43957</v>
+        <v>43995</v>
       </c>
       <c r="I173" s="3">
         <v>0</v>
@@ -4679,28 +4648,28 @@
     </row>
     <row r="175" spans="1:9" ht="21" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="B175" s="3">
         <v>2</v>
       </c>
       <c r="C175" s="6">
-        <v>0.13159999999999999</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="E175" s="3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F175" s="3">
-        <v>9119</v>
+        <v>2765</v>
       </c>
       <c r="G175" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" s="5">
-        <v>43999</v>
+        <v>43995</v>
       </c>
       <c r="I175" s="3">
         <v>0</v>
@@ -4719,28 +4688,28 @@
     </row>
     <row r="177" spans="1:9" ht="21" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="B177" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C177" s="6">
-        <v>0.20169999999999999</v>
+        <v>0.3039</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="E177" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F177" s="3">
-        <v>4256</v>
+        <v>8187</v>
       </c>
       <c r="G177" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" s="5">
-        <v>43971</v>
+        <v>43995</v>
       </c>
       <c r="I177" s="3">
         <v>0</v>
@@ -4759,28 +4728,28 @@
     </row>
     <row r="179" spans="1:9" ht="21" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="B179" s="3">
         <v>2</v>
       </c>
       <c r="C179" s="6">
-        <v>0.23960000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="E179" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F179" s="3">
-        <v>6889</v>
+        <v>3184</v>
       </c>
       <c r="G179" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" s="5">
-        <v>43668</v>
+        <v>43985</v>
       </c>
       <c r="I179" s="3">
         <v>0</v>
@@ -4799,28 +4768,28 @@
     </row>
     <row r="181" spans="1:9" ht="21" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B181" s="3">
         <v>2</v>
       </c>
       <c r="C181" s="6">
-        <v>0.17030000000000001</v>
+        <v>0.26679999999999998</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="E181" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F181" s="3">
-        <v>11384</v>
+        <v>2451</v>
       </c>
       <c r="G181" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" s="5">
-        <v>43528</v>
+        <v>43985</v>
       </c>
       <c r="I181" s="3">
         <v>0</v>
@@ -4839,28 +4808,28 @@
     </row>
     <row r="183" spans="1:9" ht="21" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="B183" s="3">
         <v>2</v>
       </c>
       <c r="C183" s="6">
-        <v>0.311</v>
+        <v>0.28050000000000003</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="E183" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F183" s="3">
-        <v>5026</v>
+        <v>3451</v>
       </c>
       <c r="G183" s="3">
         <v>1</v>
       </c>
       <c r="H183" s="5">
-        <v>44328</v>
+        <v>43985</v>
       </c>
       <c r="I183" s="3">
         <v>0</v>
@@ -4879,28 +4848,28 @@
     </row>
     <row r="185" spans="1:9" ht="21" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B185" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185" s="6">
-        <v>0.14749999999999999</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E185" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" s="3">
-        <v>4332</v>
+        <v>2555</v>
       </c>
       <c r="G185" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" s="5">
-        <v>43803</v>
+        <v>43971</v>
       </c>
       <c r="I185" s="3">
         <v>0</v>
@@ -4917,30 +4886,28 @@
       <c r="H186" s="5"/>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" spans="1:9" ht="21" customHeight="1">
+    <row r="187" spans="1:9" ht="16.5" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B187" s="3">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B187" s="7"/>
       <c r="C187" s="6">
-        <v>0.11550000000000001</v>
+        <v>0.11840000000000001</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E187" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F187" s="3">
-        <v>5001</v>
+        <v>644</v>
       </c>
       <c r="G187" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" s="5">
-        <v>43908</v>
+        <v>43971</v>
       </c>
       <c r="I187" s="3">
         <v>0</v>
@@ -4948,7 +4915,7 @@
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1">
       <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+      <c r="B188" s="7"/>
       <c r="C188" s="6"/>
       <c r="D188" s="4"/>
       <c r="E188" s="3"/>
@@ -4959,28 +4926,28 @@
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="B189" s="3">
         <v>2</v>
       </c>
       <c r="C189" s="6">
-        <v>0.25669999999999998</v>
+        <v>0.20169999999999999</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="E189" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F189" s="3">
-        <v>2806</v>
+        <v>4256</v>
       </c>
       <c r="G189" s="3">
         <v>1</v>
       </c>
       <c r="H189" s="5">
-        <v>44181</v>
+        <v>43971</v>
       </c>
       <c r="I189" s="3">
         <v>0</v>
@@ -4999,28 +4966,28 @@
     </row>
     <row r="191" spans="1:9" ht="16.5" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B191" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C191" s="6">
-        <v>0.28050000000000003</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E191" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F191" s="3">
-        <v>3451</v>
+        <v>10939</v>
       </c>
       <c r="G191" s="3">
         <v>1</v>
       </c>
       <c r="H191" s="5">
-        <v>43985</v>
+        <v>43957</v>
       </c>
       <c r="I191" s="3">
         <v>0</v>
@@ -5039,28 +5006,28 @@
     </row>
     <row r="193" spans="1:9" ht="16.5" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="B193" s="3">
         <v>2</v>
       </c>
       <c r="C193" s="6">
-        <v>0.43559999999999999</v>
+        <v>0.2107</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="E193" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F193" s="3">
-        <v>1735</v>
+        <v>3358</v>
       </c>
       <c r="G193" s="3">
         <v>1</v>
       </c>
       <c r="H193" s="5">
-        <v>43936</v>
+        <v>43957</v>
       </c>
       <c r="I193" s="3">
         <v>0</v>
@@ -5079,28 +5046,28 @@
     </row>
     <row r="195" spans="1:9" ht="16.5" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="B195" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195" s="6">
-        <v>0.1648</v>
+        <v>0.1996</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="E195" s="3">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F195" s="3">
-        <v>8554</v>
+        <v>2440</v>
       </c>
       <c r="G195" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" s="5">
-        <v>44032</v>
+        <v>43936</v>
       </c>
       <c r="I195" s="3">
         <v>0</v>
@@ -5197,28 +5164,28 @@
       <c r="H200" s="5"/>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="1:9" ht="16.5" customHeight="1">
+    <row r="201" spans="1:9" ht="21" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="6">
-        <v>0.1198</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E201" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F201" s="3">
-        <v>2452</v>
+        <v>1672</v>
       </c>
       <c r="G201" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" s="5">
-        <v>43544</v>
+        <v>43829</v>
       </c>
       <c r="I201" s="3">
         <v>0</v>
@@ -5235,30 +5202,30 @@
       <c r="H202" s="5"/>
       <c r="I202" s="3"/>
     </row>
-    <row r="203" spans="1:9" ht="21" customHeight="1">
+    <row r="203" spans="1:9" ht="16.5" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B203" s="3">
         <v>2</v>
       </c>
-      <c r="C203" s="6">
-        <v>0.37569999999999998</v>
+      <c r="C203" s="8">
+        <v>0.4</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="E203" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F203" s="3">
-        <v>3395</v>
+        <v>599</v>
       </c>
       <c r="G203" s="3">
         <v>1</v>
       </c>
       <c r="H203" s="5">
-        <v>44214</v>
+        <v>43829</v>
       </c>
       <c r="I203" s="3">
         <v>0</v>
@@ -5267,7 +5234,7 @@
     <row r="204" spans="1:9" ht="16.5" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
-      <c r="C204" s="6"/>
+      <c r="C204" s="8"/>
       <c r="D204" s="4"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -5277,31 +5244,31 @@
     </row>
     <row r="205" spans="1:9" ht="16.5" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B205" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C205" s="6">
-        <v>0.26850000000000002</v>
+        <v>0.56879999999999997</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E205" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F205" s="3">
-        <v>1362</v>
+        <v>3501</v>
       </c>
       <c r="G205" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" s="5">
-        <v>43528</v>
+        <v>43817</v>
       </c>
       <c r="I205" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5" customHeight="1">
@@ -5317,26 +5284,28 @@
     </row>
     <row r="207" spans="1:9" ht="16.5" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B207" s="7"/>
-      <c r="C207" s="8">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B207" s="3">
+        <v>1</v>
+      </c>
+      <c r="C207" s="6">
+        <v>0.14749999999999999</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E207" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F207" s="3">
-        <v>3071</v>
+        <v>4332</v>
       </c>
       <c r="G207" s="3">
         <v>1</v>
       </c>
       <c r="H207" s="5">
-        <v>43740</v>
+        <v>43803</v>
       </c>
       <c r="I207" s="3">
         <v>0</v>
@@ -5344,8 +5313,8 @@
     </row>
     <row r="208" spans="1:9" ht="16.5" customHeight="1">
       <c r="A208" s="3"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="8"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="6"/>
       <c r="D208" s="4"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
@@ -5355,28 +5324,28 @@
     </row>
     <row r="209" spans="1:9" ht="16.5" customHeight="1">
       <c r="A209" s="3" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B209" s="3">
         <v>2</v>
       </c>
-      <c r="C209" s="8">
-        <v>0.4</v>
+      <c r="C209" s="6">
+        <v>0.25009999999999999</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E209" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F209" s="3">
-        <v>599</v>
+        <v>6359</v>
       </c>
       <c r="G209" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" s="5">
-        <v>43829</v>
+        <v>43754</v>
       </c>
       <c r="I209" s="3">
         <v>0</v>
@@ -5385,7 +5354,7 @@
     <row r="210" spans="1:9" ht="16.5" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="8"/>
+      <c r="C210" s="6"/>
       <c r="D210" s="4"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -5395,26 +5364,26 @@
     </row>
     <row r="211" spans="1:9" ht="16.5" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="8">
         <v>0</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="E211" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F211" s="3">
-        <v>205</v>
+        <v>3071</v>
       </c>
       <c r="G211" s="3">
         <v>1</v>
       </c>
       <c r="H211" s="5">
-        <v>43668</v>
+        <v>43740</v>
       </c>
       <c r="I211" s="3">
         <v>0</v>
@@ -5433,28 +5402,28 @@
     </row>
     <row r="213" spans="1:9" ht="16.5" customHeight="1">
       <c r="A213" s="3" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="B213" s="3">
         <v>2</v>
       </c>
       <c r="C213" s="6">
-        <v>0.42859999999999998</v>
+        <v>0.23960000000000001</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="E213" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F213" s="3">
-        <v>921</v>
+        <v>6889</v>
       </c>
       <c r="G213" s="3">
         <v>1</v>
       </c>
       <c r="H213" s="5">
-        <v>43626</v>
+        <v>43668</v>
       </c>
       <c r="I213" s="3">
         <v>0</v>
@@ -5473,28 +5442,26 @@
     </row>
     <row r="215" spans="1:9" ht="16.5" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B215" s="3">
-        <v>1</v>
-      </c>
-      <c r="C215" s="6">
-        <v>0.34379999999999999</v>
+        <v>119</v>
+      </c>
+      <c r="B215" s="7"/>
+      <c r="C215" s="8">
+        <v>0</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E215" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F215" s="3">
-        <v>444</v>
+        <v>205</v>
       </c>
       <c r="G215" s="3">
         <v>1</v>
       </c>
       <c r="H215" s="5">
-        <v>43544</v>
+        <v>43668</v>
       </c>
       <c r="I215" s="3">
         <v>0</v>
@@ -5502,8 +5469,8 @@
     </row>
     <row r="216" spans="1:9" ht="16.5" customHeight="1">
       <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="6"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="8"/>
       <c r="D216" s="4"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
@@ -5511,30 +5478,416 @@
       <c r="H216" s="5"/>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="218" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="219" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="220" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="221" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="222" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="223" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="224" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="225" ht="16.5" customHeight="1"/>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="229" ht="16.5" customHeight="1"/>
-    <row r="230" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
-    <row r="232" ht="16.5" customHeight="1"/>
-    <row r="233" ht="16.5" customHeight="1"/>
-    <row r="234" ht="16.5" customHeight="1"/>
-    <row r="235" ht="16.5" customHeight="1"/>
-    <row r="236" ht="16.5" customHeight="1"/>
-    <row r="237" ht="16.5" customHeight="1"/>
-    <row r="238" ht="16.5" customHeight="1"/>
-    <row r="239" ht="16.5" customHeight="1"/>
-    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="217" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A217" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B217" s="3">
+        <v>2</v>
+      </c>
+      <c r="C217" s="6">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E217" s="3">
+        <v>22</v>
+      </c>
+      <c r="F217" s="3">
+        <v>2994</v>
+      </c>
+      <c r="G217" s="3">
+        <v>1</v>
+      </c>
+      <c r="H217" s="5">
+        <v>43661</v>
+      </c>
+      <c r="I217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A219" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B219" s="3">
+        <v>2</v>
+      </c>
+      <c r="C219" s="6">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E219" s="3">
+        <v>1</v>
+      </c>
+      <c r="F219" s="3">
+        <v>921</v>
+      </c>
+      <c r="G219" s="3">
+        <v>1</v>
+      </c>
+      <c r="H219" s="5">
+        <v>43626</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A221" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B221" s="3">
+        <v>2</v>
+      </c>
+      <c r="C221" s="6">
+        <v>0.1807</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E221" s="3">
+        <v>17</v>
+      </c>
+      <c r="F221" s="3">
+        <v>4286</v>
+      </c>
+      <c r="G221" s="3">
+        <v>1</v>
+      </c>
+      <c r="H221" s="5">
+        <v>43614</v>
+      </c>
+      <c r="I221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="3"/>
+    </row>
+    <row r="223" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A223" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B223" s="3">
+        <v>3</v>
+      </c>
+      <c r="C223" s="6">
+        <v>0.3014</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E223" s="3">
+        <v>21</v>
+      </c>
+      <c r="F223" s="3">
+        <v>7750</v>
+      </c>
+      <c r="G223" s="3">
+        <v>2</v>
+      </c>
+      <c r="H223" s="5">
+        <v>43584</v>
+      </c>
+      <c r="I223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="3"/>
+    </row>
+    <row r="225" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A225" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B225" s="7"/>
+      <c r="C225" s="6">
+        <v>0.1198</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E225" s="3">
+        <v>5</v>
+      </c>
+      <c r="F225" s="3">
+        <v>2452</v>
+      </c>
+      <c r="G225" s="3">
+        <v>1</v>
+      </c>
+      <c r="H225" s="5">
+        <v>43544</v>
+      </c>
+      <c r="I225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A226" s="3"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="3"/>
+    </row>
+    <row r="227" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A227" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1</v>
+      </c>
+      <c r="C227" s="6">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1</v>
+      </c>
+      <c r="F227" s="3">
+        <v>444</v>
+      </c>
+      <c r="G227" s="3">
+        <v>1</v>
+      </c>
+      <c r="H227" s="5">
+        <v>43544</v>
+      </c>
+      <c r="I227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="3"/>
+    </row>
+    <row r="229" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" s="3">
+        <v>2</v>
+      </c>
+      <c r="C229" s="6">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229" s="3">
+        <v>11</v>
+      </c>
+      <c r="F229" s="3">
+        <v>11384</v>
+      </c>
+      <c r="G229" s="3">
+        <v>1</v>
+      </c>
+      <c r="H229" s="5">
+        <v>43528</v>
+      </c>
+      <c r="I229" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="3"/>
+    </row>
+    <row r="231" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A231" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B231" s="3">
+        <v>1</v>
+      </c>
+      <c r="C231" s="6">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E231" s="3">
+        <v>3</v>
+      </c>
+      <c r="F231" s="3">
+        <v>1362</v>
+      </c>
+      <c r="G231" s="3">
+        <v>1</v>
+      </c>
+      <c r="H231" s="5">
+        <v>43528</v>
+      </c>
+      <c r="I231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A233" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B233" s="3"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3">
+        <v>1</v>
+      </c>
+      <c r="H233" s="5">
+        <v>40534</v>
+      </c>
+      <c r="I233" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="3"/>
+    </row>
+    <row r="235" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A235" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B235" s="3"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3">
+        <v>1</v>
+      </c>
+      <c r="H235" s="5">
+        <v>40534</v>
+      </c>
+      <c r="I235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="3"/>
+    </row>
+    <row r="237" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A237" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B237" s="3"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3">
+        <v>1</v>
+      </c>
+      <c r="H237" s="5">
+        <v>40534</v>
+      </c>
+      <c r="I237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="240" spans="1:9" ht="16.5" customHeight="1"/>
     <row r="241" ht="16.5" customHeight="1"/>
     <row r="242" ht="16.5" customHeight="1"/>
     <row r="243" ht="16.5" customHeight="1"/>
@@ -5588,126 +5941,210 @@
     <row r="291" ht="16.5" customHeight="1"/>
     <row r="292" ht="16.5" customHeight="1"/>
     <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:I216" xr:uid="{DB34C744-4366-43EF-B90C-A462B6A9762F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I216">
-      <sortCondition descending="1" ref="G1:G216"/>
+  <autoFilter ref="A1:I214" xr:uid="{DB34C744-4366-43EF-B90C-A462B6A9762F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I238">
+      <sortCondition descending="1" ref="H1:H214"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="976">
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="I215:I216"/>
+  <mergeCells count="1075">
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="E237:E238"/>
+    <mergeCell ref="F237:F238"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="I237:I238"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="F235:F236"/>
+    <mergeCell ref="G235:G236"/>
+    <mergeCell ref="H235:H236"/>
+    <mergeCell ref="I235:I236"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="E233:E234"/>
+    <mergeCell ref="F233:F234"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="H233:H234"/>
+    <mergeCell ref="I233:I234"/>
+    <mergeCell ref="I229:I230"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="F231:F232"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="I231:I232"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="G229:G230"/>
+    <mergeCell ref="H229:H230"/>
+    <mergeCell ref="I227:I228"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="H225:H226"/>
+    <mergeCell ref="I225:I226"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="I223:I224"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="I217:I218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
     <mergeCell ref="A215:A216"/>
     <mergeCell ref="B215:B216"/>
     <mergeCell ref="C215:C216"/>
     <mergeCell ref="D215:D216"/>
     <mergeCell ref="E215:E216"/>
     <mergeCell ref="F215:F216"/>
-    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="I215:I216"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
     <mergeCell ref="A213:A214"/>
     <mergeCell ref="B213:B214"/>
     <mergeCell ref="C213:C214"/>
     <mergeCell ref="D213:D214"/>
     <mergeCell ref="E213:E214"/>
     <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="I209:I210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
     <mergeCell ref="C211:C212"/>
     <mergeCell ref="D211:D212"/>
     <mergeCell ref="E211:E212"/>
     <mergeCell ref="F211:F212"/>
     <mergeCell ref="G211:G212"/>
     <mergeCell ref="H211:H212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="I205:I206"/>
-    <mergeCell ref="I207:I208"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="I211:I212"/>
     <mergeCell ref="C209:C210"/>
     <mergeCell ref="D209:D210"/>
     <mergeCell ref="E209:E210"/>
     <mergeCell ref="F209:F210"/>
     <mergeCell ref="G209:G210"/>
     <mergeCell ref="H209:H210"/>
-    <mergeCell ref="I209:I210"/>
-    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="I203:I204"/>
+    <mergeCell ref="I205:I206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
     <mergeCell ref="D207:D208"/>
     <mergeCell ref="E207:E208"/>
     <mergeCell ref="F207:F208"/>
     <mergeCell ref="G207:G208"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="I201:I202"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="I207:I208"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="I199:I200"/>
     <mergeCell ref="A201:A202"/>
     <mergeCell ref="B201:B202"/>
     <mergeCell ref="C201:C202"/>
     <mergeCell ref="D201:D202"/>
     <mergeCell ref="E201:E202"/>
     <mergeCell ref="F201:F202"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="I203:I204"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="I201:I202"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="C193:C194"/>
     <mergeCell ref="I193:I194"/>
-    <mergeCell ref="A195:A196"/>
     <mergeCell ref="C195:C196"/>
     <mergeCell ref="I195:I196"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="I197:I198"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
     <mergeCell ref="H183:H184"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
     <mergeCell ref="F185:F186"/>
     <mergeCell ref="G185:G186"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="H195:H196"/>
     <mergeCell ref="A181:A182"/>
     <mergeCell ref="B181:B182"/>
     <mergeCell ref="C181:C182"/>
@@ -5716,7 +6153,20 @@
     <mergeCell ref="F181:F182"/>
     <mergeCell ref="G181:G182"/>
     <mergeCell ref="H181:H182"/>
-    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
     <mergeCell ref="A179:A180"/>
     <mergeCell ref="B179:B180"/>
     <mergeCell ref="C179:C180"/>
@@ -5726,117 +6176,117 @@
     <mergeCell ref="G179:G180"/>
     <mergeCell ref="H179:H180"/>
     <mergeCell ref="I179:I180"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="I175:I176"/>
     <mergeCell ref="A177:A178"/>
     <mergeCell ref="B177:B178"/>
     <mergeCell ref="C177:C178"/>
     <mergeCell ref="D177:D178"/>
     <mergeCell ref="E177:E178"/>
-    <mergeCell ref="A173:A174"/>
     <mergeCell ref="F177:F178"/>
     <mergeCell ref="G177:G178"/>
     <mergeCell ref="H177:H178"/>
     <mergeCell ref="I177:I178"/>
-    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="A175:A176"/>
     <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
     <mergeCell ref="D175:D176"/>
     <mergeCell ref="E175:E176"/>
+    <mergeCell ref="A171:A172"/>
     <mergeCell ref="F175:F176"/>
     <mergeCell ref="G175:G176"/>
     <mergeCell ref="H175:H176"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="H171:H172"/>
     <mergeCell ref="B173:B174"/>
     <mergeCell ref="D173:D174"/>
     <mergeCell ref="E173:E174"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H173:H174"/>
     <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
     <mergeCell ref="D171:D172"/>
     <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="A169:A170"/>
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="D169:D170"/>
     <mergeCell ref="E169:E170"/>
     <mergeCell ref="F169:F170"/>
     <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="B167:B168"/>
     <mergeCell ref="C167:C168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
     <mergeCell ref="D167:D168"/>
     <mergeCell ref="E167:E168"/>
     <mergeCell ref="F167:F168"/>
     <mergeCell ref="G167:G168"/>
-    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="A165:A166"/>
     <mergeCell ref="B165:B166"/>
     <mergeCell ref="D165:D166"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
     <mergeCell ref="A151:A152"/>
     <mergeCell ref="B151:B152"/>
     <mergeCell ref="C151:C152"/>
     <mergeCell ref="D151:D152"/>
     <mergeCell ref="E151:E152"/>
     <mergeCell ref="F151:F152"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="G151:G152"/>
     <mergeCell ref="A149:A150"/>
     <mergeCell ref="B149:B150"/>
     <mergeCell ref="C149:C150"/>
     <mergeCell ref="D149:D150"/>
     <mergeCell ref="E149:E150"/>
     <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A147:A148"/>
     <mergeCell ref="B147:B148"/>
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="D147:D148"/>
     <mergeCell ref="E147:E148"/>
     <mergeCell ref="F147:F148"/>
     <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
     <mergeCell ref="D145:D146"/>
     <mergeCell ref="E145:E146"/>
     <mergeCell ref="F145:F146"/>
     <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
     <mergeCell ref="D143:D144"/>
     <mergeCell ref="E143:E144"/>
     <mergeCell ref="F143:F144"/>
     <mergeCell ref="G143:G144"/>
     <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="H139:H140"/>
     <mergeCell ref="I139:I140"/>
     <mergeCell ref="A141:A142"/>
     <mergeCell ref="B141:B142"/>
@@ -5845,27 +6295,21 @@
     <mergeCell ref="E141:E142"/>
     <mergeCell ref="F141:F142"/>
     <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I137:I138"/>
     <mergeCell ref="A139:A140"/>
     <mergeCell ref="B139:B140"/>
     <mergeCell ref="C139:C140"/>
     <mergeCell ref="D139:D140"/>
     <mergeCell ref="E139:E140"/>
     <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
     <mergeCell ref="A137:A138"/>
     <mergeCell ref="B137:B138"/>
     <mergeCell ref="C137:C138"/>
     <mergeCell ref="D137:D138"/>
     <mergeCell ref="E137:E138"/>
     <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
     <mergeCell ref="A135:A136"/>
     <mergeCell ref="B135:B136"/>
     <mergeCell ref="C135:C136"/>
@@ -5874,36 +6318,43 @@
     <mergeCell ref="F135:F136"/>
     <mergeCell ref="G135:G136"/>
     <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="B133:B134"/>
     <mergeCell ref="C133:C134"/>
     <mergeCell ref="D133:D134"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
     <mergeCell ref="A131:A132"/>
     <mergeCell ref="B131:B132"/>
     <mergeCell ref="C131:C132"/>
     <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A129:A130"/>
     <mergeCell ref="B129:B130"/>
     <mergeCell ref="C129:C130"/>
     <mergeCell ref="D129:D130"/>
     <mergeCell ref="E129:E130"/>
     <mergeCell ref="F129:F130"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="B123:B124"/>
     <mergeCell ref="C123:C124"/>
@@ -5911,161 +6362,179 @@
     <mergeCell ref="E123:E124"/>
     <mergeCell ref="F123:F124"/>
     <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
     <mergeCell ref="G119:G120"/>
     <mergeCell ref="H119:H120"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I113:I114"/>
     <mergeCell ref="A115:A116"/>
     <mergeCell ref="B115:B116"/>
     <mergeCell ref="C115:C116"/>
     <mergeCell ref="D115:D116"/>
     <mergeCell ref="E115:E116"/>
     <mergeCell ref="F115:F116"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="G115:G116"/>
     <mergeCell ref="A113:A114"/>
     <mergeCell ref="B113:B114"/>
     <mergeCell ref="C113:C114"/>
     <mergeCell ref="D113:D114"/>
     <mergeCell ref="E113:E114"/>
     <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="C111:C112"/>
     <mergeCell ref="D111:D112"/>
     <mergeCell ref="E111:E112"/>
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="G111:G112"/>
-    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
     <mergeCell ref="D109:D110"/>
     <mergeCell ref="E109:E110"/>
     <mergeCell ref="F109:F110"/>
     <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="I103:I104"/>
     <mergeCell ref="D107:D108"/>
     <mergeCell ref="E107:E108"/>
     <mergeCell ref="F107:F108"/>
     <mergeCell ref="G107:G108"/>
     <mergeCell ref="H107:H108"/>
     <mergeCell ref="I107:I108"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="H101:H102"/>
     <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="E97:E98"/>
     <mergeCell ref="F97:F98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="G97:G98"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="C95:C96"/>
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="E95:E96"/>
     <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
     <mergeCell ref="G91:G92"/>
     <mergeCell ref="H91:H92"/>
     <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="C77:C78"/>
     <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
     <mergeCell ref="C79:C80"/>
     <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="A85:A86"/>
     <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="D75:D76"/>
     <mergeCell ref="E75:E76"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
     <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
@@ -6073,35 +6542,7 @@
     <mergeCell ref="E65:E66"/>
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="G65:G66"/>
-    <mergeCell ref="F77:F78"/>
     <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
@@ -6109,27 +6550,60 @@
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="G57:G58"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
     <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="H45:H46"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
     <mergeCell ref="E51:E52"/>
-    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:C48"/>
@@ -6137,29 +6611,6 @@
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="G47:G48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:C44"/>
@@ -6167,6 +6618,7 @@
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
@@ -6174,10 +6626,6 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -6186,50 +6634,61 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G35:G36"/>
     <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I27:I28"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -6243,283 +6702,274 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I199:I200"/>
-    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="I197:I198"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="I185:I186"/>
     <mergeCell ref="I187:I188"/>
     <mergeCell ref="I189:I190"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="I123:I124"/>
     <mergeCell ref="I125:I126"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="I117:I118"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
     <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="I65:I66"/>
     <mergeCell ref="I67:I68"/>
     <mergeCell ref="I69:I70"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="C69:C70"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
     <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="H67:H68"/>
     <mergeCell ref="A205:A206"/>
     <mergeCell ref="B205:B206"/>
     <mergeCell ref="C205:C206"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="A117:A118"/>
     <mergeCell ref="D119:D120"/>
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="F119:F120"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I41:I42"/>
     <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I61:I62"/>
     <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="I21:I22"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A191:A192"/>
     <mergeCell ref="B191:B192"/>
     <mergeCell ref="D191:D192"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="A161:A162"/>
     <mergeCell ref="B161:B162"/>
     <mergeCell ref="D161:D162"/>
     <mergeCell ref="E161:E162"/>
     <mergeCell ref="F161:F162"/>
     <mergeCell ref="G161:G162"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="A157:A158"/>
     <mergeCell ref="B157:B158"/>
     <mergeCell ref="D157:D158"/>
     <mergeCell ref="E157:E158"/>
     <mergeCell ref="F157:F158"/>
     <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="H153:H154"/>
     <mergeCell ref="B155:B156"/>
     <mergeCell ref="D155:D156"/>
     <mergeCell ref="E155:E156"/>
     <mergeCell ref="F155:F156"/>
     <mergeCell ref="G155:G156"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="C107:C108"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="A109:A110"/>
     <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="G125:G126"/>
     <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="B117:B118"/>
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="E83:E84"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="G83:G84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="A81:A82"/>
     <mergeCell ref="B81:B82"/>
     <mergeCell ref="D81:D82"/>
     <mergeCell ref="E81:E82"/>
     <mergeCell ref="F81:F82"/>
     <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="H77:H78"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="F79:F80"/>
     <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H23:H24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>

--- a/gpe/Problem_List.xlsx
+++ b/gpe/Problem_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnsou\Desktop\cpp\gpe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpha\Desktop\cpp\gpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CB2F5-886D-4F68-84E7-453375CF0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79DA016-1A8A-4D00-8D20-63C1EEF826D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="4770" windowWidth="21795" windowHeight="13020" xr2:uid="{21DD07EA-1B5E-43B6-9AD5-97FF9BC94BD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{21DD07EA-1B5E-43B6-9AD5-97FF9BC94BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1226,19 +1226,19 @@
   <dimension ref="A1:O175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1">
@@ -1274,14 +1274,14 @@
       </c>
       <c r="L1" s="7">
         <f>COUNTIF(I:I, "&gt;0")/(COUNTA(I:I)-1)</f>
-        <v>0.16101694915254236</v>
+        <v>0.16949152542372881</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>223</v>
       </c>
       <c r="O1" s="7">
         <f>SUMIF(I:I, "&gt;0")/COUNTIF(I:I, "&gt;0") - 1</f>
-        <v>0.10526315789473695</v>
+        <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
@@ -1424,7 +1424,7 @@
         <v>45371</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1">
